--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.316</v>
+        <v>-0.14</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.782</v>
+        <v>28.466</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.249</v>
+        <v>-0.109</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>22.962</v>
+        <v>27.907</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.503</v>
+        <v>-0.038</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>19.393</v>
+        <v>28.031</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.02203251625009</v>
+        <v>26.81803731209873</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>17.29130853537851</v>
+        <v>26.81803731433184</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>28.59686463262768</v>
+        <v>26.8180373356146</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>14.73669081243782</v>
+        <v>26.81803732072821</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.90569818062019</v>
+        <v>26.81803735275355</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>27.53737859617709</v>
+        <v>26.81803732841349</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>21.77122532441593</v>
+        <v>26.81803733044812</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>33.37423122392092</v>
+        <v>26.81803735233961</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>19.1207213312477</v>
+        <v>26.81803733636719</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>31.9709754165212</v>
+        <v>26.8180373705662</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>29.09387481582829</v>
+        <v>26.8180373314837</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.36683790715824</v>
+        <v>26.81803733346309</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>34.94415941582157</v>
+        <v>26.81803735529019</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>20.6965761802466</v>
+        <v>26.81803733925593</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>33.63225205520128</v>
+        <v>26.81803737357631</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>29.70007912552907</v>
+        <v>26.81803731620622</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.82952736652427</v>
+        <v>26.81803731839628</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>35.49503675593542</v>
+        <v>26.81803733998756</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>21.02455353507372</v>
+        <v>26.81803732471437</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>34.06647224765219</v>
+        <v>26.81803735755559</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.72440060745293</v>
+        <v>26.81803735468886</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>34.12724697270325</v>
+        <v>26.81803737743548</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>19.46970615672779</v>
+        <v>26.81803736012297</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>34.37243646244797</v>
+        <v>26.81803739880985</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>29.95543698968517</v>
+        <v>26.81803739958243</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>42.5167641134132</v>
+        <v>26.81803742185954</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>27.97936907440335</v>
+        <v>26.81803740307892</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.75691732002458</v>
+        <v>26.81803737228316</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>39.48278200342982</v>
+        <v>26.81803739568063</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>24.39843671393715</v>
+        <v>26.81803737719711</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>39.76600744514293</v>
+        <v>26.81803741652763</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>35.31643656246332</v>
+        <v>26.81803741707505</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>48.19917642321732</v>
+        <v>26.81803743998825</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>33.22918072129605</v>
+        <v>26.81803742004767</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>28.45449983895726</v>
+        <v>26.81803737523684</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>41.1514126560642</v>
+        <v>26.8180373985658</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.07231285522993</v>
+        <v>26.81803738002511</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>41.36863519267505</v>
+        <v>26.81803741919575</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>36.9500224409058</v>
+        <v>26.81803741969376</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>49.80265144340051</v>
+        <v>26.8180374425409</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>34.83812918279344</v>
+        <v>26.81803742255368</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>28.75957795295147</v>
+        <v>26.81803735943967</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>41.55551677246652</v>
+        <v>26.81803738251668</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.25443188936154</v>
+        <v>26.8180373647776</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>41.3432425855134</v>
+        <v>26.81803740395236</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>36.8196263616377</v>
+        <v>26.81803740466203</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>49.77697603934314</v>
+        <v>26.81803742726446</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>34.61315187503992</v>
+        <v>26.81803740804556</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>22.35971824281492</v>
+        <v>26.81803730192873</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>16.39240076589194</v>
+        <v>26.81803730416</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>27.83522014144325</v>
+        <v>26.81803732560101</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>13.69675162133658</v>
+        <v>26.81803731081039</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.6057366255311</v>
+        <v>26.81803734221402</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.66419312166718</v>
+        <v>26.81803731778517</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>20.66256501095447</v>
+        <v>26.8180373198118</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>32.40290073280106</v>
+        <v>26.81803734185673</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>17.87808390414769</v>
+        <v>26.81803732599787</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>31.45831113435537</v>
+        <v>26.81803735954611</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>28.20121547659578</v>
+        <v>26.81803732082729</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>22.2390359141699</v>
+        <v>26.8180373227983</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>33.95257997854383</v>
+        <v>26.81803734477609</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>19.43596605691188</v>
+        <v>26.81803732885947</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>33.0978583983181</v>
+        <v>26.81803736252663</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>29.05721405501077</v>
+        <v>26.81803730579505</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>22.93675314840957</v>
+        <v>26.81803730798213</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>34.74314424996513</v>
+        <v>26.81803732973066</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>19.9835720852908</v>
+        <v>26.81803731456093</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>33.79655972241102</v>
+        <v>26.81803734676455</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>21.17359322552444</v>
+        <v>26.81803734416457</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>33.72425652820731</v>
+        <v>26.81803736709945</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>18.75405178896082</v>
+        <v>26.81803734987468</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>34.7368853544493</v>
+        <v>26.81803739017263</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>30.04853208224894</v>
+        <v>26.81803739098063</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>42.77691909946859</v>
+        <v>26.81803741347544</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>27.86583658715076</v>
+        <v>26.81803739471014</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>25.99469958929826</v>
+        <v>26.81803736127128</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>38.86847906249281</v>
+        <v>26.81803738485207</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>23.47860152461095</v>
+        <v>26.81803736647435</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>39.93058402097574</v>
+        <v>26.81803740744929</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>35.21067297692092</v>
+        <v>26.81803740802566</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>48.2612474594722</v>
+        <v>26.81803743115209</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>32.92340053470408</v>
+        <v>26.81803741124317</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>27.67104704437374</v>
+        <v>26.8180373641946</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>40.51473330761128</v>
+        <v>26.81803738770385</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>25.13263591642549</v>
+        <v>26.81803736927308</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>41.5068129182844</v>
+        <v>26.81803741008303</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>36.81862588522949</v>
+        <v>26.81803741060923</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>49.83789722144225</v>
+        <v>26.81803743366656</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>34.50843040202243</v>
+        <v>26.81803741371523</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>28.22523555841027</v>
+        <v>26.81803734866248</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>41.17284756743457</v>
+        <v>26.81803737192692</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.54754297458565</v>
+        <v>26.81803735428318</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>41.74437118899876</v>
+        <v>26.8180373950912</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>36.9360283244405</v>
+        <v>26.81803739583538</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>50.06449543295736</v>
+        <v>26.81803741865519</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>34.51466951486397</v>
+        <v>26.81803739945817</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>22.35971824281492</v>
+        <v>26.81803730192873</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>16.39240076589194</v>
+        <v>26.81803730416</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>27.83522014144325</v>
+        <v>26.81803732560101</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>13.69675162133658</v>
+        <v>26.81803731081039</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.6057366255311</v>
+        <v>26.81803734221402</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.66419312166718</v>
+        <v>26.81803731778517</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>20.66256501095447</v>
+        <v>26.8180373198118</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>32.40290073280106</v>
+        <v>26.81803734185673</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>17.87808390414769</v>
+        <v>26.81803732599787</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>31.45831113435537</v>
+        <v>26.81803735954611</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>28.20121547659578</v>
+        <v>26.81803732082729</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.2390359141699</v>
+        <v>26.8180373227983</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>33.95257997854383</v>
+        <v>26.81803734477609</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>19.43596605691188</v>
+        <v>26.81803732885947</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>33.0978583983181</v>
+        <v>26.81803736252663</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>29.05721405501077</v>
+        <v>26.81803730579505</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>22.93675314840957</v>
+        <v>26.81803730798213</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>34.74314424996513</v>
+        <v>26.81803732973066</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>19.9835720852908</v>
+        <v>26.81803731456093</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>33.79655972241102</v>
+        <v>26.81803734676455</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>21.17359322552444</v>
+        <v>26.81803734416457</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>33.72425652820731</v>
+        <v>26.81803736709945</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>18.75405178896082</v>
+        <v>26.81803734987468</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>34.7368853544493</v>
+        <v>26.81803739017263</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.04853208224894</v>
+        <v>26.81803739098063</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>42.77691909946859</v>
+        <v>26.81803741347544</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>27.86583658715076</v>
+        <v>26.81803739471014</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>25.99469958929826</v>
+        <v>26.81803736127128</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>38.86847906249281</v>
+        <v>26.81803738485207</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>23.47860152461095</v>
+        <v>26.81803736647435</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>39.93058402097574</v>
+        <v>26.81803740744929</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>35.21067297692092</v>
+        <v>26.81803740802566</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>48.2612474594722</v>
+        <v>26.81803743115209</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>32.92340053470408</v>
+        <v>26.81803741124317</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>27.67104704437374</v>
+        <v>26.8180373641946</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>40.51473330761128</v>
+        <v>26.81803738770385</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>25.13263591642549</v>
+        <v>26.81803736927308</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>41.5068129182844</v>
+        <v>26.81803741008303</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>36.81862588522949</v>
+        <v>26.81803741060923</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>49.83789722144225</v>
+        <v>26.81803743366656</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>34.50843040202243</v>
+        <v>26.81803741371523</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>28.22523555841027</v>
+        <v>26.81803734866248</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>41.17284756743457</v>
+        <v>26.81803737192692</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>25.54754297458565</v>
+        <v>26.81803735428318</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>41.74437118899876</v>
+        <v>26.8180373950912</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>36.9360283244405</v>
+        <v>26.81803739583538</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>50.06449543295736</v>
+        <v>26.81803741865519</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>34.51466951486397</v>
+        <v>26.81803739945817</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>19.58129324414308</v>
+        <v>26.81803730606078</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>13.84363476429449</v>
+        <v>26.81803730841491</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>25.15013634336994</v>
+        <v>26.81803732977421</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>11.3651942340022</v>
+        <v>26.81803731504914</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>23.59101725676269</v>
+        <v>26.81803734703934</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>24.06621752101593</v>
+        <v>26.81803732237179</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>18.29343969877975</v>
+        <v>26.81803732452708</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.89811526848217</v>
+        <v>26.81803734649664</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>15.72013178652946</v>
+        <v>26.81803733068413</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>28.62876786097427</v>
+        <v>26.81803736485611</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>25.6466013405456</v>
+        <v>26.81803732548984</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>19.91296850104093</v>
+        <v>26.81803732758876</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>31.4920206230633</v>
+        <v>26.81803734949361</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>17.31933599860293</v>
+        <v>26.81803733361771</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>30.31356234299584</v>
+        <v>26.81803736791251</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.20778640772351</v>
+        <v>26.81803731012803</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>20.32953334657255</v>
+        <v>26.81803731243969</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>31.9959158672434</v>
+        <v>26.81803733410851</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>17.60131248662434</v>
+        <v>26.81803731899723</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>30.70473947769996</v>
+        <v>26.81803735180497</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>18.4004715337464</v>
+        <v>26.81803734909337</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>30.81111652928249</v>
+        <v>26.81803737192773</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>16.21777712988796</v>
+        <v>26.81803735475767</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>31.54024904977158</v>
+        <v>26.81803739420494</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.10534250166674</v>
+        <v>26.81803739508036</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>39.68522689024802</v>
+        <v>26.81803741745228</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>25.18166383280166</v>
+        <v>26.81803739876874</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>23.40577460774981</v>
+        <v>26.81803736669128</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>36.14029062625185</v>
+        <v>26.81803739017823</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>21.12027209116049</v>
+        <v>26.8180373718353</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>36.91397224911832</v>
+        <v>26.81803741193865</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>32.44667622205437</v>
+        <v>26.81803741258842</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>45.34895886844285</v>
+        <v>26.81803743559827</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>30.41248974960358</v>
+        <v>26.81803741575248</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>25.12693108405016</v>
+        <v>26.81803736969012</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>37.83252024463578</v>
+        <v>26.81803739310817</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>22.81718533238569</v>
+        <v>26.8180373747066</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>38.53732827818421</v>
+        <v>26.81803741464658</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>34.1011207464197</v>
+        <v>26.81803741524595</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>46.97325147169462</v>
+        <v>26.81803743818933</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>32.04188286201661</v>
+        <v>26.81803741829568</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>25.38780861442817</v>
+        <v>26.81803735380828</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>38.19161007357896</v>
+        <v>26.81803737697417</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>22.95512889287493</v>
+        <v>26.81803735937788</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>38.47297220938098</v>
+        <v>26.81803739932207</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>33.93060694700992</v>
+        <v>26.81803740013498</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>46.90678853051824</v>
+        <v>26.81803742283346</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>31.77665113663886</v>
+        <v>26.81803740371155</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>24.15905185862592</v>
+        <v>26.81803731318349</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.37192332544925</v>
+        <v>26.8180373153216</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>29.71583536634553</v>
+        <v>26.81803733659627</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>15.75532665745631</v>
+        <v>26.81803732161682</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>28.33348641319263</v>
+        <v>26.81803735390714</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>28.66564687389991</v>
+        <v>26.81803732940631</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>22.84254212062401</v>
+        <v>26.81803733134473</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>34.48401541823276</v>
+        <v>26.8180373532262</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>20.1298094964001</v>
+        <v>26.81803733716371</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>33.39022011831204</v>
+        <v>26.81803737161848</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>30.20554298868606</v>
+        <v>26.81803733245103</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>24.42186199220814</v>
+        <v>26.81803733433482</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>36.03728473885669</v>
+        <v>26.81803735615173</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>21.68997101057857</v>
+        <v>26.81803734002861</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>35.03244889366349</v>
+        <v>26.8180373746006</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>30.81752045583924</v>
+        <v>26.81803731727217</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>24.88924327819025</v>
+        <v>26.81803731936633</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>36.59313578592466</v>
+        <v>26.81803734094909</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.02215726128103</v>
+        <v>26.81803732558293</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>35.47828110851823</v>
+        <v>26.81803735868763</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.09104888084412</v>
+        <v>26.81803735575104</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>35.53532121130323</v>
+        <v>26.81803737848935</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>20.76384966613342</v>
+        <v>26.8180373610834</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>35.69456194165103</v>
+        <v>26.81803739982018</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>31.21924125343647</v>
+        <v>26.81803740051547</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>43.81579501453488</v>
+        <v>26.81803742278063</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>29.17379718028356</v>
+        <v>26.81803740392318</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>28.11450503948199</v>
+        <v>26.81803737324294</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>40.8818626249699</v>
+        <v>26.81803739662996</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>25.68326993525392</v>
+        <v>26.81803737805646</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>41.07721116645303</v>
+        <v>26.81803741743846</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>36.5688670980545</v>
+        <v>26.81803741790782</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>49.48682734588319</v>
+        <v>26.81803744080696</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>34.41208765020962</v>
+        <v>26.8180374207932</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>29.79338561551628</v>
+        <v>26.81803737616921</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>42.53139023145154</v>
+        <v>26.81803739948752</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>27.33912637698677</v>
+        <v>26.81803738085813</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>42.66142024348348</v>
+        <v>26.81803742007998</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>38.18438738101712</v>
+        <v>26.81803742050043</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>51.07186041786908</v>
+        <v>26.81803744333333</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>36.00364149534848</v>
+        <v>26.8180374232741</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>30.10884854325947</v>
+        <v>26.81803736047944</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>42.94625047339245</v>
+        <v>26.81803738354766</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>27.53089501674936</v>
+        <v>26.81803736571532</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>42.64799589111669</v>
+        <v>26.81803740494043</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>38.06482782297577</v>
+        <v>26.81803740557211</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>51.05728520483861</v>
+        <v>26.81803742816208</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>35.78873294601523</v>
+        <v>26.81803740886673</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>23.63616561230727</v>
+        <v>26.81803730720745</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>17.66276755214214</v>
+        <v>26.81803730928328</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>29.13316462051522</v>
+        <v>26.81803733067107</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>14.92850377781089</v>
+        <v>26.81803731568193</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>28.39790471212907</v>
+        <v>26.81803734794547</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>27.98763210979333</v>
+        <v>26.81803732304999</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>21.97883906144923</v>
+        <v>26.8180373249224</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>33.74708982521715</v>
+        <v>26.81803734691145</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>19.15321409392243</v>
+        <v>26.81803733085495</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>33.30285299803166</v>
+        <v>26.81803736525769</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>29.50844661001776</v>
+        <v>26.81803732605554</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>23.5396190046037</v>
+        <v>26.81803732787334</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>35.28076979450491</v>
+        <v>26.81803734979564</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>20.69597763430447</v>
+        <v>26.81803733368224</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>34.92221281613602</v>
+        <v>26.81803736819757</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>30.274280720479</v>
+        <v>26.81803731111909</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>24.15122764141811</v>
+        <v>26.81803731314952</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>35.98406288211311</v>
+        <v>26.81803733484431</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>21.16230113758033</v>
+        <v>26.81803731947381</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>35.53383395261001</v>
+        <v>26.8180373525437</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>22.95959108417491</v>
+        <v>26.81803734974341</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>35.54667328925571</v>
+        <v>26.81803737262339</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.48899515086119</v>
+        <v>26.81803735519085</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>36.3902737679031</v>
+        <v>26.8180373950986</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>31.70680576025614</v>
+        <v>26.8180373957697</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>44.45982372791922</v>
+        <v>26.81803741819568</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>29.4870297927944</v>
+        <v>26.81803739927029</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>27.83193369841967</v>
+        <v>26.81803736683176</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>40.74253783548082</v>
+        <v>26.81803739035477</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.26207412040441</v>
+        <v>26.81803737177071</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>41.63321598795817</v>
+        <v>26.81803741234536</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>36.91722982558804</v>
+        <v>26.8180374127866</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>49.99259294657844</v>
+        <v>26.81803743584118</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>34.59044093622809</v>
+        <v>26.8180374157745</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>29.48858389778747</v>
+        <v>26.81803736971548</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>42.36870514260247</v>
+        <v>26.81803739316736</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.8970583451981</v>
+        <v>26.81803737453124</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>43.1908226029301</v>
+        <v>26.81803741494213</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>38.50693847585048</v>
+        <v>26.8180374153341</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>51.55064684811252</v>
+        <v>26.81803743832002</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>36.15775386725419</v>
+        <v>26.81803741821175</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>29.95984210305708</v>
+        <v>26.81803735428791</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>42.94280313290625</v>
+        <v>26.81803737749693</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>27.23386450124908</v>
+        <v>26.8180373596432</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>43.34491217431288</v>
+        <v>26.81803740005551</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>38.54498378122232</v>
+        <v>26.81803740066177</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>51.69679571971493</v>
+        <v>26.81803742341202</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>36.08941842473273</v>
+        <v>26.81803740405327</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>21.05603060508559</v>
+        <v>26.81803730474177</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>15.21059709008639</v>
+        <v>26.81803730703353</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.59452329569728</v>
+        <v>26.81803732843971</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>12.61708367224701</v>
+        <v>26.81803731366208</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>25.1541200656553</v>
+        <v>26.81803734532331</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>25.42836978786654</v>
+        <v>26.81803732079327</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>19.54877823907707</v>
+        <v>26.81803732288436</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>31.23033315663824</v>
+        <v>26.81803734489622</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>16.86444836582837</v>
+        <v>26.81803732904444</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>30.07949443454128</v>
+        <v>26.81803736286582</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.9871826611991</v>
+        <v>26.81803732385676</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>21.14685903561849</v>
+        <v>26.81803732589186</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>32.80214702101229</v>
+        <v>26.81803734783734</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>18.44314357980342</v>
+        <v>26.81803733192594</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>31.74244679479153</v>
+        <v>26.81803736586932</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>27.73953997925995</v>
+        <v>26.81803730869616</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>21.74745456493405</v>
+        <v>26.81803731094457</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>33.49378153350284</v>
+        <v>26.81803733265871</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>18.89955736158785</v>
+        <v>26.81803731749956</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>32.32725801343281</v>
+        <v>26.81803734997055</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>19.85458353501325</v>
+        <v>26.81803734732903</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>32.34829072016852</v>
+        <v>26.81803737022791</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>17.5487913234159</v>
+        <v>26.81803735300777</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>33.38555912008964</v>
+        <v>26.81803739280209</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>28.83450971329268</v>
+        <v>26.81803739364888</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>41.50825949400658</v>
+        <v>26.81803741610202</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.77249331939421</v>
+        <v>26.81803739735127</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>24.74852117262414</v>
+        <v>26.81803736465016</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>37.56562871552109</v>
+        <v>26.81803738819693</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>22.34400992965551</v>
+        <v>26.81803736981738</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>38.65432784284803</v>
+        <v>26.81803741027499</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>34.07178086589045</v>
+        <v>26.81803741089368</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>47.06791971306714</v>
+        <v>26.81803743398022</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>31.90306340302727</v>
+        <v>26.81803741407992</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.4479785586527</v>
+        <v>26.81803736759618</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>39.23551557458217</v>
+        <v>26.81803739107226</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>24.02024276602949</v>
+        <v>26.81803737263778</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>40.25410359213036</v>
+        <v>26.81803741293223</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.70285643157507</v>
+        <v>26.81803741350052</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>48.66819661428863</v>
+        <v>26.8180374365188</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>33.51020983042013</v>
+        <v>26.81803741657423</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.8952237437079</v>
+        <v>26.8180373519245</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>39.78475266263229</v>
+        <v>26.81803737515348</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>24.33471616526755</v>
+        <v>26.81803735751171</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>40.38055551215062</v>
+        <v>26.81803739780959</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>35.71584516862417</v>
+        <v>26.81803739859311</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>48.78868796107088</v>
+        <v>26.81803742137171</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>33.41857452705706</v>
+        <v>26.81803740218673</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>22.78542577568653</v>
+        <v>26.81803730948874</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>16.89647695813625</v>
+        <v>26.81803731170011</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>28.41039376246031</v>
+        <v>26.81803733331007</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>14.26037442556617</v>
+        <v>26.81803731818986</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>27.09139719093586</v>
+        <v>26.81803735085752</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>27.32484344432803</v>
+        <v>26.81803732589615</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>21.39962931317618</v>
+        <v>26.81803732790437</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>33.2155000096712</v>
+        <v>26.81803735012964</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>18.66706282710624</v>
+        <v>26.81803733391247</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>32.18972135768198</v>
+        <v>26.81803736877503</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>28.89419474817691</v>
+        <v>26.81803732899719</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>23.00897942575563</v>
+        <v>26.81803733094958</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>34.79838150966642</v>
+        <v>26.81803735310901</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>20.25686003148597</v>
+        <v>26.81803733683023</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>33.86257868834075</v>
+        <v>26.81803737181209</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.5228087158624</v>
+        <v>26.81803731359709</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>23.48936902659944</v>
+        <v>26.81803731576401</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>35.36869027424277</v>
+        <v>26.81803733768653</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>20.59881663214815</v>
+        <v>26.81803732217524</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>34.32438108421448</v>
+        <v>26.81803735566792</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>21.75349261434646</v>
+        <v>26.81803735277199</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.38665527665975</v>
+        <v>26.81803737587367</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>19.40780193227724</v>
+        <v>26.81803735828534</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>34.79263769349669</v>
+        <v>26.81803739794805</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>30.22848548883288</v>
+        <v>26.81803739869441</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>43.0215728513235</v>
+        <v>26.81803742132177</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>28.15859712268916</v>
+        <v>26.81803740223994</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.81830054335137</v>
+        <v>26.8180373704662</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>39.77935197944457</v>
+        <v>26.81803739422578</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>24.36813056556432</v>
+        <v>26.81803737545468</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>40.22546406169681</v>
+        <v>26.81803741577838</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>35.62798756514136</v>
+        <v>26.81803741629489</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>48.7473732941763</v>
+        <v>26.81803743956529</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>33.4460626424957</v>
+        <v>26.81803741931177</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>28.52836386024588</v>
+        <v>26.81803737344615</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>41.45958317972885</v>
+        <v>26.81803739713562</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.05474709544671</v>
+        <v>26.81803737830775</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>41.83803587464774</v>
+        <v>26.81803741846763</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>37.27239147885541</v>
+        <v>26.81803741893411</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>50.36076880313509</v>
+        <v>26.81803744213691</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>35.0661306729904</v>
+        <v>26.81803742183729</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>28.85632979692048</v>
+        <v>26.81803735752964</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>41.88858662155017</v>
+        <v>26.81803738096609</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.25585435371549</v>
+        <v>26.81803736294636</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>41.83540792662912</v>
+        <v>26.81803740310926</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>37.1605245485415</v>
+        <v>26.81803740379118</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>50.3556101346815</v>
+        <v>26.81803742674822</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>34.85608410509112</v>
+        <v>26.81803740722306</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>27.48918576712337</v>
+        <v>26.81803731388009</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>21.53598024602318</v>
+        <v>26.81803731584604</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>32.98337985066618</v>
+        <v>26.81803733710822</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>18.72233285073149</v>
+        <v>26.81803732199921</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>31.79671372122721</v>
+        <v>26.81803735382953</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>31.84004071687863</v>
+        <v>26.81803732965759</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>25.85171373359168</v>
+        <v>26.81803733142111</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>37.59514100765135</v>
+        <v>26.81803735328044</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>22.94678919621325</v>
+        <v>26.8180373371109</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>36.69362507554514</v>
+        <v>26.81803737106198</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>33.32771502069909</v>
+        <v>26.81803733259457</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>27.37919118205765</v>
+        <v>26.81803733430463</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>39.09541199301388</v>
+        <v>26.81803735609739</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>24.45697837040738</v>
+        <v>26.81803733987327</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>38.28181365448031</v>
+        <v>26.81803737393781</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>34.17025875963863</v>
+        <v>26.81803731781039</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>28.0682591890907</v>
+        <v>26.81803731973066</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>39.87748184167874</v>
+        <v>26.81803734129768</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>24.99963405589248</v>
+        <v>26.81803732580874</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>38.96236573550875</v>
+        <v>26.81803735843825</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.38250528178772</v>
+        <v>26.81803735552479</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>38.93125856915358</v>
+        <v>26.8180373782619</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>23.84324615338048</v>
+        <v>26.81803736074786</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>39.3312842824083</v>
+        <v>26.81803739973734</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>34.67459503430411</v>
+        <v>26.81803740032512</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>47.38113281646572</v>
+        <v>26.81803742260612</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>32.39985842243597</v>
+        <v>26.81803740364296</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>31.24709252260957</v>
+        <v>26.81803737253426</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>44.11729555850262</v>
+        <v>26.81803739590986</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>28.60878841040127</v>
+        <v>26.81803737725179</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>44.55866504591286</v>
+        <v>26.81803741689304</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>39.86983186063273</v>
+        <v>26.81803741725176</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>52.8966195283062</v>
+        <v>26.81803744015675</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>37.48855091332249</v>
+        <v>26.81803742006003</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>32.87236164337052</v>
+        <v>26.81803737535501</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>45.71205583079388</v>
+        <v>26.81803739865974</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>30.21305706585553</v>
+        <v>26.81803737995172</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>46.08785349318912</v>
+        <v>26.81803741943363</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>41.43086398098536</v>
+        <v>26.81803741974404</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>54.42603382021845</v>
+        <v>26.81803744258065</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>39.02775660513859</v>
+        <v>26.81803742244413</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>33.41332484363549</v>
+        <v>26.81803736007953</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>46.35697210064306</v>
+        <v>26.8180373831433</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>30.618635233339</v>
+        <v>26.81803736520989</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>46.30834036614367</v>
+        <v>26.81803740469323</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>41.53583179147672</v>
+        <v>26.81803740521609</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>54.64000608151187</v>
+        <v>26.81803742781896</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>39.02536039460743</v>
+        <v>26.81803740842463</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.31545841055851</v>
+        <v>26.81803729512243</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>10.75973387192944</v>
+        <v>26.8180372975786</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>21.5624890391014</v>
+        <v>26.81803731808986</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>8.420969112838765</v>
+        <v>26.81803730439147</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>19.88575455289057</v>
+        <v>26.81803733377789</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>20.43200722916224</v>
+        <v>26.81803731051059</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>14.84453641376199</v>
+        <v>26.81803731277267</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>25.93153228156903</v>
+        <v>26.81803733386807</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>12.42187638090413</v>
+        <v>26.81803731913816</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>24.52670564175154</v>
+        <v>26.81803735060553</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>21.97008767120244</v>
+        <v>26.81803731353565</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>16.4192842535633</v>
+        <v>26.81803731574236</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>27.48196959763861</v>
+        <v>26.81803733677427</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>13.97658780931712</v>
+        <v>26.81803732198425</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.1677291267494</v>
+        <v>26.81803735357499</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>22.73420235328796</v>
+        <v>26.81803729882467</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>17.0337995472239</v>
+        <v>26.81803730124129</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>28.18367075114272</v>
+        <v>26.81803732204797</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>14.44931618988089</v>
+        <v>26.81803730798786</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.7760401556252</v>
+        <v>26.81803733814256</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>14.84821939944801</v>
+        <v>26.81803733595181</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.70528207271162</v>
+        <v>26.81803735789653</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>12.79377467428491</v>
+        <v>26.81803734185779</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>28.09734980528459</v>
+        <v>26.81803738076421</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>23.76212929780207</v>
+        <v>26.81803738180219</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>35.80647247731241</v>
+        <v>26.81803740333888</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>21.92041187512103</v>
+        <v>26.81803738575985</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>19.46008641363883</v>
+        <v>26.8180373525656</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>31.62596393708624</v>
+        <v>26.81803737513534</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>17.31437484407022</v>
+        <v>26.81803735798276</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>33.07182229347747</v>
+        <v>26.81803739754341</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>28.70723180898127</v>
+        <v>26.81803739836096</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>41.05964807169855</v>
+        <v>26.8180374205091</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.76624542290048</v>
+        <v>26.8180374018245</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>21.13521710781928</v>
+        <v>26.81803735547833</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>33.27369385981739</v>
+        <v>26.81803737798039</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>18.96574442932477</v>
+        <v>26.81803736077221</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>34.6491272003183</v>
+        <v>26.81803740017352</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>30.31384577281752</v>
+        <v>26.8180374009413</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>42.63762142627033</v>
+        <v>26.81803742302406</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>28.34861783321248</v>
+        <v>26.8180374042944</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.60738477162191</v>
+        <v>26.81803734026877</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>33.84357142685931</v>
+        <v>26.81803736253013</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>19.30685965565009</v>
+        <v>26.81803734609123</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>34.81667514612468</v>
+        <v>26.81803738549047</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>30.36861865549487</v>
+        <v>26.81803738646959</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>42.7954990090178</v>
+        <v>26.81803740831872</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>28.29941555482915</v>
+        <v>26.81803739032663</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>19.28506525347226</v>
+        <v>26.81803729757934</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>13.48289187033162</v>
+        <v>26.81803729985182</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>24.59290571476719</v>
+        <v>26.8180373207477</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>10.93582586565744</v>
+        <v>26.81803730652983</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>23.68332571566225</v>
+        <v>26.81803733719581</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>23.45333862367773</v>
+        <v>26.818037313007</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>17.61782742076687</v>
+        <v>26.8180373150801</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>29.01772618801305</v>
+        <v>26.81803733656517</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>14.98490329698968</v>
+        <v>26.81803732130605</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>28.38810855764532</v>
+        <v>26.81803735406674</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>24.97200753536155</v>
+        <v>26.81803731601595</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>19.17480625224762</v>
+        <v>26.81803731803408</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>30.54885414938665</v>
+        <v>26.81803733945385</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>16.52320711522066</v>
+        <v>26.81803732413676</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>30.00522880319199</v>
+        <v>26.81803735701299</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>25.75501832580497</v>
+        <v>26.81803730130687</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>19.80315088567167</v>
+        <v>26.8180373035369</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>31.26635941399199</v>
+        <v>26.81803732473273</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>17.00617251889775</v>
+        <v>26.81803731014648</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>30.6413730429121</v>
+        <v>26.81803734159286</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>18.39700480789321</v>
+        <v>26.81803733919003</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>30.59197900307473</v>
+        <v>26.8180373615482</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>16.11109070429043</v>
+        <v>26.8180373449413</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>31.94332456570584</v>
+        <v>26.81803738479409</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>27.37461861374877</v>
+        <v>26.81803738566296</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>39.74996010551823</v>
+        <v>26.81803740759812</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>25.30573277348373</v>
+        <v>26.81803738945617</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>23.07120758557436</v>
+        <v>26.81803735584151</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>35.58107278721716</v>
+        <v>26.81803737882995</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>20.69186560494249</v>
+        <v>26.81803736109903</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>36.98517309287593</v>
+        <v>26.81803740162162</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>32.38570281020979</v>
+        <v>26.81803740226502</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>45.07508695624325</v>
+        <v>26.81803742481667</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>30.21537874278142</v>
+        <v>26.81803740555944</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>24.72411118845826</v>
+        <v>26.8180373587313</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>37.20487284681052</v>
+        <v>26.81803738165011</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>22.32252096588963</v>
+        <v>26.81803736386595</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>38.53852795352691</v>
+        <v>26.8180374042249</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>33.96997268946019</v>
+        <v>26.81803740481876</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>46.62902546887423</v>
+        <v>26.81803742730313</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>31.77690101806856</v>
+        <v>26.81803740800325</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>25.21890664853104</v>
+        <v>26.8180373435364</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>37.79972050731759</v>
+        <v>26.81803736621607</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>22.68228573821609</v>
+        <v>26.81803734920181</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>38.72895695570399</v>
+        <v>26.81803738955839</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>34.04287322503623</v>
+        <v>26.8180373903656</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>46.80725634018684</v>
+        <v>26.81803741261788</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>31.74208401553108</v>
+        <v>26.81803739405584</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>16.58943522054338</v>
+        <v>26.81803729476892</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>10.93387498138322</v>
+        <v>26.81803729718238</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>21.84345276499494</v>
+        <v>26.81803731781515</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>8.526910556720459</v>
+        <v>26.81803730399212</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>20.44792956716806</v>
+        <v>26.81803733362506</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>20.67263703586222</v>
+        <v>26.81803731003908</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>14.9854069501236</v>
+        <v>26.81803731225755</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.18053133104817</v>
+        <v>26.81803733347255</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>12.49536328637473</v>
+        <v>26.81803731862232</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>25.05909138083584</v>
+        <v>26.81803735032871</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>22.19521506801881</v>
+        <v>26.81803731304323</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>16.54538322101576</v>
+        <v>26.81803731520624</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>27.71537278351702</v>
+        <v>26.81803733635667</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>14.03608499309075</v>
+        <v>26.81803732144777</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.68244941638411</v>
+        <v>26.81803735327515</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>22.96058822186371</v>
+        <v>26.81803729843208</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>17.15864284007887</v>
+        <v>26.81803730080509</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>28.4162558994047</v>
+        <v>26.81803732173395</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>14.50579485815658</v>
+        <v>26.81803730754909</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>27.29274204319443</v>
+        <v>26.81803733795099</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>15.30730924677012</v>
+        <v>26.81803733576297</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>27.28245540590758</v>
+        <v>26.81803735784112</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>13.17207865772606</v>
+        <v>26.81803734166491</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>29.01377598539079</v>
+        <v>26.81803738119747</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>24.56941393313486</v>
+        <v>26.81803738220419</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>36.73734377666121</v>
+        <v>26.81803740387625</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>22.62993222734402</v>
+        <v>26.8180373861433</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>19.88949393302689</v>
+        <v>26.81803735225141</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>32.17491381147644</v>
+        <v>26.81803737495247</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>17.66374544751433</v>
+        <v>26.8180373576668</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>33.96494247797679</v>
+        <v>26.81803739786238</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>29.49125227864262</v>
+        <v>26.81803739864755</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>41.96886223357276</v>
+        <v>26.81803742092894</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>27.45303429646058</v>
+        <v>26.81803740209461</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.5477064680741</v>
+        <v>26.8180373551409</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>33.80483002713446</v>
+        <v>26.81803737777314</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>19.29907777497751</v>
+        <v>26.81803736043334</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>35.52311037694552</v>
+        <v>26.81803740046673</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>31.07951309901317</v>
+        <v>26.81803740120193</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>43.52754992486813</v>
+        <v>26.81803742341678</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>29.01801643431065</v>
+        <v>26.81803740453897</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>22.01916435860446</v>
+        <v>26.81803734004025</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>34.37446500148391</v>
+        <v>26.81803736243582</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>19.63751735421172</v>
+        <v>26.81803734585918</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>35.69665116317079</v>
+        <v>26.81803738589171</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>31.13742071680714</v>
+        <v>26.81803738683874</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>43.68898407751698</v>
+        <v>26.81803740882405</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>28.9696446251382</v>
+        <v>26.81803739067762</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>12.84605395455468</v>
+        <v>26.81803728960208</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>7.391708255018756</v>
+        <v>26.81803729207754</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>17.9069874149908</v>
+        <v>26.81803731207291</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>5.166738175799612</v>
+        <v>26.81803729893311</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>16.8124922145605</v>
+        <v>26.81803732762624</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>16.76742864690544</v>
+        <v>26.81803730437653</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>11.28269130667717</v>
+        <v>26.81803730666337</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>22.07450397197075</v>
+        <v>26.81803732722375</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>8.978281877074537</v>
+        <v>26.8180373130884</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>21.24791626824443</v>
+        <v>26.81803734379696</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>18.26998514461995</v>
+        <v>26.81803730734318</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>12.8212701754461</v>
+        <v>26.81803730957522</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>23.58907953547876</v>
+        <v>26.81803733007316</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>10.4974429487928</v>
+        <v>26.81803731587885</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>22.84697491162309</v>
+        <v>26.81803734670526</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>18.95190443689087</v>
+        <v>26.81803729310325</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>13.35540393173672</v>
+        <v>26.81803729554045</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>24.20654909771314</v>
+        <v>26.81803731582302</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>10.89351691860385</v>
+        <v>26.81803730233409</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>23.3845060453258</v>
+        <v>26.81803733177303</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>11.85143338317443</v>
+        <v>26.8180373298292</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>23.40453076176708</v>
+        <v>26.81803735123283</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>9.882723847211581</v>
+        <v>26.8180373357942</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>25.55770478468273</v>
+        <v>26.81803737479422</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>21.26124013645573</v>
+        <v>26.8180373758845</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>33.01150328313854</v>
+        <v>26.81803739690297</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>19.4637082219793</v>
+        <v>26.81803737991124</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>16.25905652339423</v>
+        <v>26.81803734579182</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>28.11272018629555</v>
+        <v>26.81803736780009</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>14.20365679030682</v>
+        <v>26.81803735128592</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>30.32895359065305</v>
+        <v>26.81803739094015</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.00421214999676</v>
+        <v>26.81803739181618</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>38.05456713313599</v>
+        <v>26.81803741342632</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>24.11175860766265</v>
+        <v>26.81803739536637</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>17.89172763753662</v>
+        <v>26.81803734864392</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>29.71829146805641</v>
+        <v>26.81803737058559</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>15.81344701623342</v>
+        <v>26.81803735401697</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>31.86215753104018</v>
+        <v>26.81803739351069</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>27.56651116354172</v>
+        <v>26.81803739433742</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>39.58846391021019</v>
+        <v>26.81803741588312</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>25.65091333735627</v>
+        <v>26.81803739777931</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>18.29424444729686</v>
+        <v>26.81803733392975</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>30.21445015932102</v>
+        <v>26.81803735564136</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>16.08791963393375</v>
+        <v>26.81803733981602</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>31.9811790115201</v>
+        <v>26.81803737930859</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>27.57305000493335</v>
+        <v>26.81803738034181</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>39.694011202463</v>
+        <v>26.8180374016643</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>25.55518267994933</v>
+        <v>26.8180373842728</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>21.29515395346319</v>
+        <v>26.81803730806517</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>15.48012517192735</v>
+        <v>26.81803731040122</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.94393281746206</v>
+        <v>26.8180373320218</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>12.92528797143735</v>
+        <v>26.8180373170237</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>25.21894076109071</v>
+        <v>26.81803734934361</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>25.84633034546429</v>
+        <v>26.81803732459323</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>19.99575192792956</v>
+        <v>26.81803732672771</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>31.76137536575794</v>
+        <v>26.81803734896615</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>17.34477181513362</v>
+        <v>26.81803733286717</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>30.32875862827263</v>
+        <v>26.81803736739409</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>27.43753263654583</v>
+        <v>26.81803732772773</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.62655014311336</v>
+        <v>26.81803732980557</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>33.36618548693468</v>
+        <v>26.81803735197838</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>18.9552289555085</v>
+        <v>26.81803733581623</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>32.02668638528596</v>
+        <v>26.81803737046788</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>28.05847109294008</v>
+        <v>26.81803731219821</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>22.10068435240652</v>
+        <v>26.81803731449098</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>33.929867737682</v>
+        <v>26.81803733642468</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>19.29156533062075</v>
+        <v>26.8180373210354</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>32.47313680862717</v>
+        <v>26.81803735418231</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>19.96118154412282</v>
+        <v>26.81803735137805</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>32.54022933952092</v>
+        <v>26.81803737449064</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>17.7105995034883</v>
+        <v>26.81803735702494</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>33.05847090972252</v>
+        <v>26.81803739662216</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>28.57078011483593</v>
+        <v>26.81803739746995</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>41.31788894395397</v>
+        <v>26.81803742011299</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.59191532523116</v>
+        <v>26.81803740113199</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>25.03815961155529</v>
+        <v>26.81803736920665</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>37.94501711185006</v>
+        <v>26.81803739297995</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>22.68341931135721</v>
+        <v>26.81803737432692</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>38.50590907794901</v>
+        <v>26.81803741458305</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>33.9854849525093</v>
+        <v>26.81803741520201</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>47.05890883277008</v>
+        <v>26.81803743849087</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>31.89477039259432</v>
+        <v>26.8180374183334</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.77283985972602</v>
+        <v>26.81803737222257</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>39.65039156761804</v>
+        <v>26.81803739592602</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>24.39375561256671</v>
+        <v>26.81803737721456</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>40.14272790122449</v>
+        <v>26.81803741730722</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>35.65367282660003</v>
+        <v>26.81803741787549</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>48.69658215352725</v>
+        <v>26.81803744109697</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.53773987283107</v>
+        <v>26.81803742089186</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>27.08706575551527</v>
+        <v>26.81803735616512</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>40.06516678591877</v>
+        <v>26.8180373796131</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>24.58208989458442</v>
+        <v>26.81803736171574</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>40.12427567597824</v>
+        <v>26.81803740181258</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>35.5274686490751</v>
+        <v>26.81803740259685</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>48.67673989701457</v>
+        <v>26.81803742557025</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>33.31436651469087</v>
+        <v>26.8180374061454</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>19.64743220426565</v>
+        <v>26.81803729792292</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>13.95759471536322</v>
+        <v>26.81803730025571</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>24.91607926289733</v>
+        <v>26.81803732092662</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>11.46703478939233</v>
+        <v>26.81803730693847</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>23.40572185091399</v>
+        <v>26.81803733667002</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>23.7824851172986</v>
+        <v>26.81803731327935</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>18.06035221928505</v>
+        <v>26.81803731541516</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.30528890898893</v>
+        <v>26.81803733667126</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>15.48535609036511</v>
+        <v>26.8180373216499</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>28.06704457653568</v>
+        <v>26.81803735346115</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>25.29471638032398</v>
+        <v>26.81803731627189</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>19.61006268221947</v>
+        <v>26.81803731835291</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.82979724746898</v>
+        <v>26.81803733954457</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>17.01611671311479</v>
+        <v>26.81803732446517</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>29.68105228266639</v>
+        <v>26.8180373563964</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.1201078510069</v>
+        <v>26.81803730162929</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>20.28222681291654</v>
+        <v>26.81803730392103</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>31.5908699335427</v>
+        <v>26.8180373248889</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>17.54296150306929</v>
+        <v>26.81803731053665</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>30.35306236092601</v>
+        <v>26.81803734103776</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>18.23263532791194</v>
+        <v>26.81803733872596</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>30.25408069192792</v>
+        <v>26.81803736083761</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>16.01942118971343</v>
+        <v>26.81803734450235</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>31.39526141094039</v>
+        <v>26.81803738363802</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.93273859029045</v>
+        <v>26.81803738457153</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>39.13490318854942</v>
+        <v>26.81803740626758</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>24.93916496877396</v>
+        <v>26.81803738840675</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>22.8644093686664</v>
+        <v>26.81803735530013</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>35.19697868287407</v>
+        <v>26.81803737803778</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>20.55939660125091</v>
+        <v>26.81803736058706</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>36.387935710362</v>
+        <v>26.8180374003818</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>31.89564269657226</v>
+        <v>26.81803740109211</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>44.40814041151192</v>
+        <v>26.8180374234005</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>29.80234778732994</v>
+        <v>26.81803740443267</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>24.51335683662431</v>
+        <v>26.81803735817915</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>36.81758824724187</v>
+        <v>26.8180373808481</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>22.18572330283422</v>
+        <v>26.81803736334387</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>37.93941630989426</v>
+        <v>26.8180374029782</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>33.47723036071547</v>
+        <v>26.81803740363918</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>45.96017926880754</v>
+        <v>26.8180374258812</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>31.36080243606759</v>
+        <v>26.81803740687033</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>25.0454405953494</v>
+        <v>26.81803734304446</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>37.44922202726639</v>
+        <v>26.81803736547436</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>22.58301822824387</v>
+        <v>26.8180373487365</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>38.16532113599689</v>
+        <v>26.8180373883675</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>33.5868071939145</v>
+        <v>26.8180373892408</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>46.17453130705779</v>
+        <v>26.81803741125081</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>31.36281731349287</v>
+        <v>26.81803739297467</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>25.90603679806795</v>
+        <v>26.81803731510997</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>19.99896790392295</v>
+        <v>26.81803731722957</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>31.56879505824953</v>
+        <v>26.8180373388712</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>17.28302707059151</v>
+        <v>26.81803732353564</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>29.99432494501027</v>
+        <v>26.81803735624342</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>30.48561761899209</v>
+        <v>26.81803733158517</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>24.54207500186741</v>
+        <v>26.81803733350131</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>36.41449095996742</v>
+        <v>26.81803735575911</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>21.72863062133619</v>
+        <v>26.81803733932402</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>35.13164970544022</v>
+        <v>26.81803737422738</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>32.03819746366013</v>
+        <v>26.81803733465203</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.13481713383573</v>
+        <v>26.81803733651303</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>37.98051264847078</v>
+        <v>26.8180373587049</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>23.30228847578195</v>
+        <v>26.81803734220948</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>36.78921455886036</v>
+        <v>26.81803737723238</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>32.71457097464799</v>
+        <v>26.81803731927233</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.66321374485993</v>
+        <v>26.81803732134684</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>38.60011420430379</v>
+        <v>26.81803734330146</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>23.69131465727114</v>
+        <v>26.81803732757277</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>37.29338371701856</v>
+        <v>26.81803736110665</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>24.64394970220044</v>
+        <v>26.8180373580681</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>37.33004328684774</v>
+        <v>26.81803738119621</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>22.22603036213518</v>
+        <v>26.81803736340395</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>37.34338877113497</v>
+        <v>26.81803740255263</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>32.77537784044593</v>
+        <v>26.81803740321774</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>45.61417047225644</v>
+        <v>26.81803742586407</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>30.64836598144561</v>
+        <v>26.81803740660977</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>29.74756573057675</v>
+        <v>26.81803737582834</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>42.76217294161634</v>
+        <v>26.81803739961515</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>27.22415119983616</v>
+        <v>26.81803738063754</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>42.81069682596349</v>
+        <v>26.81803742043859</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>38.20926418554919</v>
+        <v>26.81803742087336</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>51.37489802632872</v>
+        <v>26.81803744416337</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>35.96938874895362</v>
+        <v>26.8180374237352</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>31.44245036188262</v>
+        <v>26.8180373787769</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>44.42700110665931</v>
+        <v>26.81803740249356</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>28.89599824093238</v>
+        <v>26.81803738346036</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>44.41005450473813</v>
+        <v>26.81803742309999</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>39.8404861384054</v>
+        <v>26.81803742348533</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>52.97493372941189</v>
+        <v>26.81803744670771</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>37.57658611329362</v>
+        <v>26.81803742623443</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>31.81313374632869</v>
+        <v>26.81803736287795</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>44.89995540482479</v>
+        <v>26.8180373863412</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>29.13907441772043</v>
+        <v>26.81803736811555</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>44.44474994123007</v>
+        <v>26.81803740775831</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>39.7662951782749</v>
+        <v>26.81803740835841</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>53.0085749779561</v>
+        <v>26.8180374313347</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>37.40364392194957</v>
+        <v>26.81803741163538</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>21.92164060033796</v>
+        <v>26.81803731276235</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>16.18830519230895</v>
+        <v>26.81803731495557</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>27.52497925871925</v>
+        <v>26.81803733595699</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>13.65541423269366</v>
+        <v>26.81803732126229</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>25.9365022749522</v>
+        <v>26.8180373530053</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.43463934228724</v>
+        <v>26.81803732885802</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>20.66582487394522</v>
+        <v>26.8180373308558</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>32.30081297749535</v>
+        <v>26.81803735245776</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>18.03698482457022</v>
+        <v>26.8180373366913</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>31.00223496888329</v>
+        <v>26.81803737057964</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>27.99866661942432</v>
+        <v>26.81803733189042</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>22.26904915295633</v>
+        <v>26.81803733383373</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>33.8782331995296</v>
+        <v>26.81803735537227</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>19.6203020175506</v>
+        <v>26.81803733954452</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>32.67049209312076</v>
+        <v>26.81803737355164</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>28.58275289006008</v>
+        <v>26.81803731682099</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>22.70967948534078</v>
+        <v>26.81803731897165</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>34.40696519036845</v>
+        <v>26.81803734027767</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>19.92669646050309</v>
+        <v>26.81803732520082</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>33.08356102213781</v>
+        <v>26.81803735775007</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>20.75363187070893</v>
+        <v>26.81803735490292</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>33.19396177548838</v>
+        <v>26.81803737734747</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>18.51753179280379</v>
+        <v>26.81803736025583</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>33.56161497599997</v>
+        <v>26.81803739851745</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>29.14205110284118</v>
+        <v>26.81803739926716</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>41.74271794975789</v>
+        <v>26.81803742124683</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>27.17938773941891</v>
+        <v>26.81803740270603</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>25.78655857560581</v>
+        <v>26.8180373722622</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>38.55088361496293</v>
+        <v>26.81803739534884</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>23.44655198874242</v>
+        <v>26.81803737710155</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>38.9588926877616</v>
+        <v>26.81803741599963</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>34.50668815100727</v>
+        <v>26.81803741652759</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>47.42975428807189</v>
+        <v>26.81803743913478</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>32.43263336119747</v>
+        <v>26.81803741944927</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>27.4911967678511</v>
+        <v>26.81803737517859</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>40.22641819633674</v>
+        <v>26.81803739819774</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>25.12734956531419</v>
+        <v>26.81803737989381</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>40.56774886703067</v>
+        <v>26.81803741863343</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>36.1465886559115</v>
+        <v>26.81803741911272</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>49.03937770528182</v>
+        <v>26.81803744165484</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>34.04779329847062</v>
+        <v>26.81803742192308</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>27.77521230124378</v>
+        <v>26.81803735959706</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>40.60943379742828</v>
+        <v>26.81803738236778</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>25.28884955625009</v>
+        <v>26.81803736485472</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>40.52136372045287</v>
+        <v>26.81803740359835</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>35.99532838619115</v>
+        <v>26.81803740428589</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>48.99285879304558</v>
+        <v>26.8180374265867</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>33.80237892260581</v>
+        <v>26.81803740761297</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>21.39609156250955</v>
+        <v>26.81803730174798</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>15.45541538646195</v>
+        <v>26.81803730408994</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.97412629224524</v>
+        <v>26.81803732576719</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>12.81805635130638</v>
+        <v>26.81803731086702</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>25.35347085518461</v>
+        <v>26.81803734255185</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>25.82542323855574</v>
+        <v>26.81803731803229</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>19.84984384877777</v>
+        <v>26.81803732016805</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>31.66998748281716</v>
+        <v>26.81803734246169</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>17.12065249940964</v>
+        <v>26.81803732646917</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>30.33665023228111</v>
+        <v>26.81803736034481</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>27.40679927223618</v>
+        <v>26.81803732115532</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>21.47070132736746</v>
+        <v>26.81803732323441</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>33.26446432017185</v>
+        <v>26.81803734546114</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>18.72168856011405</v>
+        <v>26.81803732940764</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>32.02467397815751</v>
+        <v>26.81803736340744</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>28.215712064595</v>
+        <v>26.81803730574062</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>22.12313827748677</v>
+        <v>26.81803730803892</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>34.00978892748223</v>
+        <v>26.81803733002854</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>19.22600040511902</v>
+        <v>26.8180373147421</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>32.66945531538101</v>
+        <v>26.81803734724101</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>19.96122459346622</v>
+        <v>26.81803734459936</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>32.59450164332739</v>
+        <v>26.81803736777898</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>17.61972328680673</v>
+        <v>26.81803735041787</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>33.31188925721175</v>
+        <v>26.81803739075884</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>28.6805715560702</v>
+        <v>26.81803739163284</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>41.48920970612492</v>
+        <v>26.81803741435981</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.59466603859238</v>
+        <v>26.81803739544727</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>24.91234608677237</v>
+        <v>26.81803736216555</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>37.87294309741398</v>
+        <v>26.81803738600438</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>22.47120780055056</v>
+        <v>26.8180373674647</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>38.63555364918383</v>
+        <v>26.8180374084836</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>33.97214408223606</v>
+        <v>26.8180374091242</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>47.10694212270093</v>
+        <v>26.8180374324958</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>31.7786552974631</v>
+        <v>26.81803741241452</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.63712646958705</v>
+        <v>26.81803736517011</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>39.5680505024666</v>
+        <v>26.81803738893765</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>24.17226009937531</v>
+        <v>26.81803737034176</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>40.26063890460949</v>
+        <v>26.81803741119514</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>35.62877528645259</v>
+        <v>26.81803741178482</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>48.73268682570432</v>
+        <v>26.81803743508761</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>33.41085129686762</v>
+        <v>26.8180374149609</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>27.13963481365716</v>
+        <v>26.81803734923638</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>40.17461069754281</v>
+        <v>26.81803737275062</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>24.53796439871159</v>
+        <v>26.8180373549629</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>40.43476035301276</v>
+        <v>26.81803739581427</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>35.68544243430325</v>
+        <v>26.81803739662454</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>48.8989097162215</v>
+        <v>26.8180374196814</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>33.35951730381503</v>
+        <v>26.8180374003295</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>19.70223630304952</v>
+        <v>26.81803730694327</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>14.09717061830159</v>
+        <v>26.81803730927398</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>25.08323485736116</v>
+        <v>26.81803733000935</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>11.66994488433735</v>
+        <v>26.8180373157583</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>23.53075627681561</v>
+        <v>26.81803734660194</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>24.04710949767382</v>
+        <v>26.81803732280429</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>18.40751420960152</v>
+        <v>26.81803732494174</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>29.68304468272662</v>
+        <v>26.81803734627035</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>15.88837087146501</v>
+        <v>26.81803733096317</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>28.41419783260346</v>
+        <v>26.81803736393081</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>25.58650892452811</v>
+        <v>26.81803732583597</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>19.9849542804734</v>
+        <v>26.81803732791851</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>31.23564656824914</v>
+        <v>26.81803734918417</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>17.44600273427845</v>
+        <v>26.81803733381554</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>30.05605952330419</v>
+        <v>26.81803736690474</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.17447137300362</v>
+        <v>26.81803731088863</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>20.43122464817473</v>
+        <v>26.81803731317861</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>31.76798836822718</v>
+        <v>26.81803733421434</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>17.75952344121326</v>
+        <v>26.81803731958921</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>30.47782129909436</v>
+        <v>26.8180373512261</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>18.46087511412328</v>
+        <v>26.81803734864097</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>30.52107170913323</v>
+        <v>26.81803737081312</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>16.3257964334933</v>
+        <v>26.81803735418769</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>31.24700357185374</v>
+        <v>26.81803739236411</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.91444201484211</v>
+        <v>26.81803739325012</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>39.14040721059701</v>
+        <v>26.81803741497727</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>25.03481874182146</v>
+        <v>26.81803739687387</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>23.31234321041298</v>
+        <v>26.81803736575696</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>35.68704641653999</v>
+        <v>26.8180373885637</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>21.07759978949314</v>
+        <v>26.81803737079873</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>36.45752312513017</v>
+        <v>26.81803740961464</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>32.0930494448278</v>
+        <v>26.81803741028098</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>44.63215102960259</v>
+        <v>26.81803743262859</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>30.10628972218508</v>
+        <v>26.81803741339562</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>24.98951045388225</v>
+        <v>26.81803736867483</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>37.33618664911381</v>
+        <v>26.81803739141455</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>22.73110632603584</v>
+        <v>26.81803737359272</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>38.03989405064718</v>
+        <v>26.81803741225086</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>33.70557554916063</v>
+        <v>26.81803741286812</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>46.21547102711625</v>
+        <v>26.81803743515107</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>31.69434389314924</v>
+        <v>26.8180374158717</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>25.28361773100965</v>
+        <v>26.81803735321636</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>37.72700162397036</v>
+        <v>26.81803737571031</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>22.90389905653258</v>
+        <v>26.81803735867186</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>38.01718595868154</v>
+        <v>26.81803739732964</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>33.57876412501994</v>
+        <v>26.81803739815535</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>46.19100849269596</v>
+        <v>26.81803742019954</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>31.47377006452821</v>
+        <v>26.81803740167119</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>21.47377995833453</v>
+        <v>26.81803731263658</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>15.79154098228764</v>
+        <v>26.81803731484901</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>27.05898423840193</v>
+        <v>26.81803733573479</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>13.29581216474615</v>
+        <v>26.81803732115325</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>25.37384159325714</v>
+        <v>26.81803735263217</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>25.96768840130064</v>
+        <v>26.81803732867462</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>20.25029161066994</v>
+        <v>26.81803733069302</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>31.81451632643698</v>
+        <v>26.81803735217661</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>17.65912060740123</v>
+        <v>26.81803733652819</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>30.41750362999798</v>
+        <v>26.81803737014353</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>27.52983859495399</v>
+        <v>26.81803733170011</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>21.85131481531616</v>
+        <v>26.81803733366409</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>33.38997854392016</v>
+        <v>26.8180373550847</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>19.24011189484406</v>
+        <v>26.81803733937484</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>32.08411812406475</v>
+        <v>26.81803737310968</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>28.10288925646822</v>
+        <v>26.81803731668067</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>22.28218319415247</v>
+        <v>26.81803731885102</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>33.90834406909977</v>
+        <v>26.81803734003987</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>19.53784274197397</v>
+        <v>26.81803732507817</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>32.48518552298139</v>
+        <v>26.81803735735933</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>20.24084754879242</v>
+        <v>26.81803735455012</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>32.60538327376473</v>
+        <v>26.81803737687101</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>18.04387946354929</v>
+        <v>26.8180373599065</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>32.98834125823333</v>
+        <v>26.81803739791456</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>28.61417000729186</v>
+        <v>26.81803739868682</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>41.13969533387587</v>
+        <v>26.81803742054603</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.68867368305176</v>
+        <v>26.8180374021366</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.2520028662974</v>
+        <v>26.81803737184792</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>37.93888176037567</v>
+        <v>26.81803739480798</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>22.95167720848695</v>
+        <v>26.81803737669304</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>38.3624174437799</v>
+        <v>26.81803741533324</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>33.95588808284087</v>
+        <v>26.81803741588521</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>46.80218132830261</v>
+        <v>26.8180374383691</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>31.91956335842355</v>
+        <v>26.81803741882008</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.95467545380629</v>
+        <v>26.81803737475852</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>39.61272042704174</v>
+        <v>26.81803739765157</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>24.63037693422584</v>
+        <v>26.81803737947978</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>39.96977961426964</v>
+        <v>26.81803741796258</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>35.59399454942881</v>
+        <v>26.81803741846593</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>48.4102807289642</v>
+        <v>26.81803744088521</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>33.53280248018916</v>
+        <v>26.81803742128972</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>27.22793911423482</v>
+        <v>26.81803735922717</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>39.98430006500354</v>
+        <v>26.81803738187258</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>24.78224839601042</v>
+        <v>26.81803736448883</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>39.91394823501459</v>
+        <v>26.81803740297577</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>35.4343877611859</v>
+        <v>26.8180374036864</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>48.35473941693211</v>
+        <v>26.81803742586513</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>33.28003009178095</v>
+        <v>26.81803740702497</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>22.92759356672262</v>
+        <v>26.81803730870863</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>17.05495855419333</v>
+        <v>26.81803731096394</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>28.49944390107239</v>
+        <v>26.8180373325213</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>14.41480788699332</v>
+        <v>26.81803731751218</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>26.98771180086658</v>
+        <v>26.81803734976052</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>27.41675068814075</v>
+        <v>26.81803732502856</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>21.50873002042752</v>
+        <v>26.8180373270829</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>33.25328184180896</v>
+        <v>26.81803734925291</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>18.77406776907107</v>
+        <v>26.81803733315448</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>32.03364202578538</v>
+        <v>26.8180373675893</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>28.98275345777778</v>
+        <v>26.81803732811757</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>23.11446389473116</v>
+        <v>26.81803733011596</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>34.83277002104738</v>
+        <v>26.81803735221989</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>20.36029778460846</v>
+        <v>26.81803733606045</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>33.70483019274155</v>
+        <v>26.81803737061746</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>29.68719321347897</v>
+        <v>26.81803731278017</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>23.66949168744761</v>
+        <v>26.81803731499166</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>35.47814797384854</v>
+        <v>26.81803733686025</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>20.77382066876408</v>
+        <v>26.81803732146313</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>34.2382670385192</v>
+        <v>26.81803735453289</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>21.66648471208401</v>
+        <v>26.81803735172045</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>34.22503053275007</v>
+        <v>26.81803737477025</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>19.32119727432534</v>
+        <v>26.81803735730236</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>34.86715815568175</v>
+        <v>26.81803739696233</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>30.30855882720817</v>
+        <v>26.81803739775237</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>43.03770688950382</v>
+        <v>26.81803742034033</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>28.22702888593994</v>
+        <v>26.81803740135898</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.67973483109519</v>
+        <v>26.81803736932761</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>39.56426059065605</v>
+        <v>26.81803739303264</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>24.23195089713758</v>
+        <v>26.81803737438939</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>40.25153771774532</v>
+        <v>26.81803741471005</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>35.66033811021224</v>
+        <v>26.8180374152716</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>48.71415195178295</v>
+        <v>26.8180374385</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>33.46857943405095</v>
+        <v>26.81803741835378</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>28.38784608750755</v>
+        <v>26.81803737229846</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>41.24280828938478</v>
+        <v>26.81803739593315</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>25.91664079960986</v>
+        <v>26.81803737723359</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>41.86163038481293</v>
+        <v>26.81803741739101</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>37.30203410368087</v>
+        <v>26.81803741790236</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>50.32508935567841</v>
+        <v>26.81803744106289</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>35.08602988661408</v>
+        <v>26.81803742087105</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>28.7862511856919</v>
+        <v>26.81803735644058</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>41.74254892768489</v>
+        <v>26.81803737982384</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>26.18520609874501</v>
+        <v>26.81803736192757</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>41.93199921671452</v>
+        <v>26.81803740208855</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>37.26164579574039</v>
+        <v>26.81803740281466</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>50.39169378556954</v>
+        <v>26.81803742573117</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>34.94427193337923</v>
+        <v>26.81803740630917</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>22.41233651376001</v>
+        <v>26.81803730513129</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>16.46736610908658</v>
+        <v>26.81803730741802</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>28.02824337133902</v>
+        <v>26.8180373291418</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>13.8052264389855</v>
+        <v>26.81803731409008</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>26.33883457876379</v>
+        <v>26.81803734603145</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.89299202096014</v>
+        <v>26.81803732152218</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>20.91238957030895</v>
+        <v>26.8180373236018</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>32.77578044999688</v>
+        <v>26.81803734594411</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>18.15656630920162</v>
+        <v>26.81803732979407</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>31.37382066870651</v>
+        <v>26.81803736393334</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>28.4751173822263</v>
+        <v>26.81803732464128</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>22.53415609033934</v>
+        <v>26.81803732666443</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>34.37110336925329</v>
+        <v>26.81803734893996</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>19.75851838345856</v>
+        <v>26.81803733272882</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>33.06282830542396</v>
+        <v>26.81803736699186</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>29.25837795415283</v>
+        <v>26.81803730918231</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>23.16279369712917</v>
+        <v>26.81803731142476</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>35.09279789659313</v>
+        <v>26.81803733346195</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>20.24083356317458</v>
+        <v>26.818037318021</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>33.67971516143303</v>
+        <v>26.81803735078052</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>20.94596747762003</v>
+        <v>26.81803734802367</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>33.62149205000782</v>
+        <v>26.81803737124845</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>18.58265764632721</v>
+        <v>26.81803735373466</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>34.09918810440259</v>
+        <v>26.81803739377057</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>29.47475389046741</v>
+        <v>26.81803739459189</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>42.31678476745996</v>
+        <v>26.8180374173543</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>27.37863044705275</v>
+        <v>26.81803739831265</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>25.94817077437191</v>
+        <v>26.81803736569784</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>38.95211121639234</v>
+        <v>26.81803738958398</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>23.48335061772207</v>
+        <v>26.81803737088558</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>39.47063203508726</v>
+        <v>26.81803741159568</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>34.81349834444573</v>
+        <v>26.81803741218269</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>47.98258863773519</v>
+        <v>26.81803743559173</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>32.60812117091184</v>
+        <v>26.81803741537577</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>27.67406194077385</v>
+        <v>26.81803736869849</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>40.64826708200516</v>
+        <v>26.81803739251352</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>25.1854887098537</v>
+        <v>26.81803737375876</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>41.09792691424622</v>
+        <v>26.81803741430483</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>36.47239988682876</v>
+        <v>26.81803741484109</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>49.61058078971696</v>
+        <v>26.81803743818153</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>34.24248944394328</v>
+        <v>26.8180374179199</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>28.15064293140122</v>
+        <v>26.81803735271999</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>41.22906954781415</v>
+        <v>26.81803737628045</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>25.52720216678723</v>
+        <v>26.81803735833708</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>41.24416328599811</v>
+        <v>26.81803739887981</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>36.50313346229545</v>
+        <v>26.81803739963677</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>49.75104435450039</v>
+        <v>26.81803742272999</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>34.16721511320891</v>
+        <v>26.81803740324631</v>
       </c>
     </row>
   </sheetData>

--- a/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLsigmoidhyperbolictangent_2/out_of_sample/aryl_halide/ranking_test3/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1000</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.14</v>
+        <v>0.436</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.466</v>
+        <v>19.46</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.109</v>
+        <v>0.525</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>27.907</v>
+        <v>18.263</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.038</v>
+        <v>0.634</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>28.031</v>
+        <v>16.654</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>26.81803731209873</v>
+        <v>18.04431937854228</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>26.81803731433184</v>
+        <v>18.26862927380213</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>26.8180373356146</v>
+        <v>23.38188108133463</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>26.81803732072821</v>
+        <v>5.219287254569707</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>26.81803735275355</v>
+        <v>19.78795213864535</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>26.81803732841349</v>
+        <v>28.91445116539895</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>26.81803733044812</v>
+        <v>30.34149111684973</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>26.81803735233961</v>
+        <v>36.18862689397719</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>26.81803733636719</v>
+        <v>16.86519059226026</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>26.8180373705662</v>
+        <v>33.99913147410345</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>26.8180373314837</v>
+        <v>30.26890483022101</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>26.81803733346309</v>
+        <v>31.94047606678306</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>26.81803735529019</v>
+        <v>37.92223004307075</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>26.81803733925593</v>
+        <v>18.46409163405498</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>26.81803737357631</v>
+        <v>36.17914891121335</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>26.81803731620622</v>
+        <v>25.04454675739733</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>26.81803731839628</v>
+        <v>25.70060414013478</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>26.81803733998756</v>
+        <v>31.25712643593852</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>26.81803732471437</v>
+        <v>12.36586852381247</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>26.81803735755559</v>
+        <v>29.34480487360002</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>26.81803735468886</v>
+        <v>23.32687242808803</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>26.81803737743548</v>
+        <v>29.27952694399923</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>26.81803736012297</v>
+        <v>9.947479090025894</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>26.81803739880985</v>
+        <v>26.54460031906799</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>26.81803739958243</v>
+        <v>33.14459848160671</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>26.81803742185954</v>
+        <v>39.69025174473965</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>26.81803740307892</v>
+        <v>19.2920949194992</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>26.81803737228316</v>
+        <v>38.83822485731586</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>26.81803739568063</v>
+        <v>45.62608699147412</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>26.81803737719711</v>
+        <v>25.00286335680247</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>26.81803741652763</v>
+        <v>43.05000011455984</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>26.81803741707505</v>
+        <v>50.99696813574998</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>26.81803743998825</v>
+        <v>58.40706001786519</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>26.81803742004767</v>
+        <v>36.66323955652332</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>26.81803737523684</v>
+        <v>41.25503953034634</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>26.8180373985658</v>
+        <v>48.19860680304084</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>26.81803738002511</v>
+        <v>27.41999550520528</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>26.81803741919575</v>
+        <v>46.08451596786983</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>26.81803741969376</v>
+        <v>54.25427293478674</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>26.8180374425409</v>
+        <v>61.82545223904281</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.81803742255368</v>
+        <v>39.91048013887324</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>26.81803735943967</v>
+        <v>33.3203194448911</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.81803738251668</v>
+        <v>39.78933166286141</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>26.8180373647776</v>
+        <v>19.63494596504276</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>26.81803740395236</v>
+        <v>38.3734721087431</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.81803740466203</v>
+        <v>45.43388905575095</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>26.81803742726446</v>
+        <v>52.52216888067437</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>26.81803740804556</v>
+        <v>31.23091769765551</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>26.81803730192873</v>
+        <v>23.57662392272124</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>26.81803730416</v>
+        <v>23.57275777496555</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>26.81803732560101</v>
+        <v>29.19781054317798</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>26.81803731081039</v>
+        <v>9.765421844181461</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>26.81803734221402</v>
+        <v>23.85442188599041</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>26.81803731778517</v>
+        <v>33.70337227319481</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>26.8180373198118</v>
+        <v>34.87408246655311</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>26.81803734185673</v>
+        <v>41.23810075952343</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>26.81803732599787</v>
+        <v>20.62390206138164</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>26.81803735954611</v>
+        <v>37.16025384151732</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>26.81803732082729</v>
+        <v>34.64504765418665</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>26.8180373227983</v>
+        <v>36.06037539722257</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>26.81803734477609</v>
+        <v>42.55305779957101</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>26.81803732885947</v>
+        <v>21.81661235794774</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>26.81803736252663</v>
+        <v>38.89063685950408</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>26.81803730579505</v>
+        <v>29.63773641102171</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>26.81803730798213</v>
+        <v>30.06716895316698</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.81803732973066</v>
+        <v>36.12951902468257</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.81803731456093</v>
+        <v>15.98337083223828</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>26.81803734676455</v>
+        <v>32.33224067795988</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>26.81803734416457</v>
+        <v>27.30034619025064</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>26.81803736709945</v>
+        <v>33.78095620843486</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>26.81803734987468</v>
+        <v>13.25336311330802</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>26.81803739017263</v>
+        <v>31.3309371201171</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>26.81803739098063</v>
+        <v>37.6767175835272</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>26.81803741347544</v>
+        <v>44.7522177119403</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>26.81803739471014</v>
+        <v>23.09830265590048</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>26.81803736127128</v>
+        <v>41.88459866028971</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>26.81803738485207</v>
+        <v>49.20449675255348</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>26.81803736647435</v>
+        <v>27.37163953617167</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>26.81803740744929</v>
+        <v>46.98023395732551</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>26.81803740802566</v>
+        <v>54.65389593246313</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>26.81803743115209</v>
+        <v>62.59670842059803</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>26.81803741124317</v>
+        <v>39.58645973553802</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>26.8180373641946</v>
+        <v>43.85409974068085</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>26.81803738770385</v>
+        <v>51.32309018305649</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>26.81803736927308</v>
+        <v>29.34955930301362</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>26.81803741008303</v>
+        <v>49.56065149577062</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.81803741060923</v>
+        <v>57.46265990111525</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>26.81803743366656</v>
+        <v>65.56021596769455</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>26.81803741371523</v>
+        <v>42.3950948698031</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.81803734866248</v>
+        <v>36.22536434885054</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>26.81803737192692</v>
+        <v>43.21465224429152</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>26.81803735428318</v>
+        <v>21.88754181932467</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>26.8180373950912</v>
+        <v>42.08104340011554</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>26.81803739583538</v>
+        <v>48.90171592686193</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>26.81803741865519</v>
+        <v>56.51393913044802</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>26.81803739945817</v>
+        <v>33.99035495031082</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>26.81803730192873</v>
+        <v>22.19595082429341</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>26.81803730416</v>
+        <v>22.28424112917568</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>26.81803732560101</v>
+        <v>27.88161842305411</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>26.81803731081039</v>
+        <v>8.565622528055599</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>26.81803734221402</v>
+        <v>23.32457970196527</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>26.81803731778517</v>
+        <v>32.31460524024017</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>26.8180373198118</v>
+        <v>33.57712234120866</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>26.81803734185673</v>
+        <v>39.91485369955141</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>26.81803732599787</v>
+        <v>19.41550797939733</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>26.81803735954611</v>
+        <v>36.62949520999908</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>26.81803732082729</v>
+        <v>33.26257049809857</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>26.8180373227983</v>
+        <v>34.76852232006429</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>26.81803734477609</v>
+        <v>41.23542864900192</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>26.81803732885947</v>
+        <v>20.61215678557541</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>26.81803736252663</v>
+        <v>38.36247997319628</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>26.81803730579505</v>
+        <v>28.24901835780362</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>26.81803730798213</v>
+        <v>28.76936693716299</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>26.81803732973066</v>
+        <v>34.80463928498958</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.81803731456093</v>
+        <v>14.77318701112471</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>26.81803734676455</v>
+        <v>31.80469995859924</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>26.81803734416457</v>
+        <v>26.80355163431291</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>26.81803736709945</v>
+        <v>33.2698028462998</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>26.81803734987468</v>
+        <v>12.80620527936982</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>26.81803739017263</v>
+        <v>30.89888204722477</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>26.81803739098063</v>
+        <v>37.26249906363874</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.81803741347544</v>
+        <v>44.33098861683401</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>26.81803739471014</v>
+        <v>22.71863734497546</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>26.81803736127128</v>
+        <v>41.3856229636533</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>26.81803738485207</v>
+        <v>48.69288312301921</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>26.81803736647435</v>
+        <v>26.92119084854858</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>26.81803740744929</v>
+        <v>46.55447905835227</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>26.81803740802566</v>
+        <v>54.24514162674776</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>26.81803743115209</v>
+        <v>62.18280678063574</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>26.81803741124317</v>
+        <v>39.21114633235461</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>26.8180373641946</v>
+        <v>43.35681305481941</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>26.81803738770385</v>
+        <v>50.81363073882012</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>26.81803736927308</v>
+        <v>28.89974638786981</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>26.81803741008303</v>
+        <v>49.13973131482142</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>26.81803741060923</v>
+        <v>57.0580381167383</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>26.81803743366656</v>
+        <v>65.15088270370507</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.81803741371523</v>
+        <v>42.02298951370143</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>26.81803734866248</v>
+        <v>35.7289975419402</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>26.81803737192692</v>
+        <v>42.70466530051392</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>26.81803735428318</v>
+        <v>21.439216539896</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>26.8180373950912</v>
+        <v>41.65699902910984</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>26.81803739583538</v>
+        <v>48.49381012662415</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>26.81803741865519</v>
+        <v>56.09984000977344</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>26.81803739945817</v>
+        <v>33.61543605925991</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>26.81803730606078</v>
+        <v>12.4697340815577</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>26.81803730841491</v>
+        <v>12.68099995399527</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>26.81803732977421</v>
+        <v>17.63300817235952</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>26.81803731504914</v>
+        <v>-0.1891700388982578</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>26.81803734703934</v>
+        <v>14.12167004543296</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>26.81803732237179</v>
+        <v>23.11105864279185</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>26.81803732452708</v>
+        <v>24.52616864715338</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>26.81803734649664</v>
+        <v>30.20657962696804</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>26.81803733068413</v>
+        <v>11.23342375162233</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>26.81803736485611</v>
+        <v>28.05344058614926</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>26.81803732548984</v>
+        <v>24.47271219299514</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>26.81803732758876</v>
+        <v>26.13379642170484</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>26.81803734949361</v>
+        <v>31.94932932384116</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>26.81803733361771</v>
+        <v>12.84084816153571</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.81803736791251</v>
+        <v>30.22895949688824</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>26.81803731012803</v>
+        <v>19.36459371694307</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.81803731243969</v>
+        <v>20.01138528803245</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.81803733410851</v>
+        <v>25.4045113495613</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>26.81803731899723</v>
+        <v>6.859797106755202</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.81803735180497</v>
+        <v>23.54650212575708</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>26.81803734909337</v>
+        <v>17.63862939280073</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.81803737192773</v>
+        <v>23.42086202670932</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>26.81803735475767</v>
+        <v>4.446438307618418</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>26.81803739420494</v>
+        <v>21.65657456684238</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>26.81803739508036</v>
+        <v>28.17310642310472</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>26.81803741745228</v>
+        <v>34.55453588510245</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>26.81803739876874</v>
+        <v>14.46851525335225</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>26.81803736669128</v>
+        <v>32.87392190725868</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>26.81803739017823</v>
+        <v>39.4851542540381</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>26.8180373718353</v>
+        <v>19.2316405574373</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>26.81803741193865</v>
+        <v>37.88877102446961</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>26.81803741258842</v>
+        <v>45.75479267602167</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>26.81803743559827</v>
+        <v>52.9941728502069</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>26.81803741575248</v>
+        <v>31.57462812362793</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>26.81803736969012</v>
+        <v>35.28848757673418</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>26.81803739310817</v>
+        <v>42.05585734022241</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>26.8180373747066</v>
+        <v>21.64670503292335</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>26.81803741464658</v>
+        <v>40.90891708238512</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>26.81803741524595</v>
+        <v>49.00032399534368</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>26.81803743818933</v>
+        <v>56.40107832451361</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>26.81803741829568</v>
+        <v>34.81065516079768</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>26.81803735380828</v>
+        <v>27.5056290160115</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>26.81803737697417</v>
+        <v>33.8016642159601</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>26.81803735937788</v>
+        <v>14.0123223922247</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>26.81803739932207</v>
+        <v>33.34426811395091</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>26.81803740013498</v>
+        <v>40.32645955608197</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>26.81803742283346</v>
+        <v>47.24784429127525</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>26.81803740371155</v>
+        <v>26.27634627396672</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>26.81803731318349</v>
+        <v>22.05860995529318</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>26.8180373153216</v>
+        <v>22.16701492558346</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>26.81803733659627</v>
+        <v>27.49455027616991</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>26.81803732161682</v>
+        <v>8.757494109430235</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>26.81803735390714</v>
+        <v>25.62794974118934</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>26.81803732940631</v>
+        <v>32.97114246602728</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>26.81803733134473</v>
+        <v>34.28025606361859</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>26.8180373532262</v>
+        <v>40.34428298209556</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>26.81803733716371</v>
+        <v>20.43768864005463</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>26.81803737161848</v>
+        <v>39.81936656118787</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>26.81803733245103</v>
+        <v>34.34039118787337</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>26.81803733433482</v>
+        <v>35.89595965533293</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>26.81803735615173</v>
+        <v>42.09439710903143</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>26.81803734002861</v>
+        <v>22.05481294660798</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>26.8180373746006</v>
+        <v>41.98880459389146</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>26.81803731727217</v>
+        <v>29.15408299173733</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>26.81803731936633</v>
+        <v>29.69720204547114</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>26.81803734094909</v>
+        <v>35.47088046770924</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>26.81803732558293</v>
+        <v>15.99987361500922</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>26.81803735868763</v>
+        <v>35.25459681868037</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>26.81803735575104</v>
+        <v>29.14286318769611</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>26.81803737848935</v>
+        <v>35.33670094606133</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.8180373610834</v>
+        <v>15.41700826156977</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>26.81803739982018</v>
+        <v>31.55730545160545</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>26.81803740051547</v>
+        <v>38.11752647445513</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>26.81803742278063</v>
+        <v>44.88071274969222</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>26.81803740392318</v>
+        <v>23.95016602767699</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>26.81803737324294</v>
+        <v>44.63538235489954</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>26.81803739662996</v>
+        <v>51.66631530690751</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.81803737805646</v>
+        <v>30.45022460294278</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>26.81803741743846</v>
+        <v>47.99736662255646</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>26.81803741790782</v>
+        <v>55.90606151759113</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>26.81803744080696</v>
+        <v>63.53494290489202</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>26.8180374207932</v>
+        <v>41.25561452963392</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>26.81803737616921</v>
+        <v>47.0433896942165</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>26.81803739948752</v>
+        <v>54.22959561381607</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>26.81803738085813</v>
+        <v>32.86038393695972</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>26.81803742007998</v>
+        <v>51.01178036845511</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>26.81803742050043</v>
+        <v>59.14538827081875</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>26.81803744333333</v>
+        <v>66.93491496589061</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>26.8180374232741</v>
+        <v>44.48695907167738</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>26.81803736047944</v>
+        <v>39.21063763224069</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>26.81803738354766</v>
+        <v>45.92357882340843</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>26.81803736571532</v>
+        <v>25.1774838846179</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>26.81803740494043</v>
+        <v>43.41756365698971</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>26.81803740557211</v>
+        <v>50.44316673661913</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>26.81803742816208</v>
+        <v>57.75134868564754</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>26.81803740886673</v>
+        <v>35.92508524342</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.81803730720745</v>
+        <v>23.45611443589663</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>26.81803730928328</v>
+        <v>23.40596853939277</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>26.81803733067107</v>
+        <v>28.98649725761569</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>26.81803731568193</v>
+        <v>9.769576742467873</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>26.81803734794547</v>
+        <v>28.2171533416857</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>26.81803732304999</v>
+        <v>33.40929543931374</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>26.8180373249224</v>
+        <v>34.51484705883723</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>26.81803734691145</v>
+        <v>40.81197722598299</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>26.81803733085495</v>
+        <v>20.44960969440889</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>26.81803736525769</v>
+        <v>41.27493390486492</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>26.81803732605554</v>
+        <v>34.45741987840788</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>26.81803732787334</v>
+        <v>35.80353809732608</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>26.81803734979564</v>
+        <v>42.22645300444863</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>26.81803733368224</v>
+        <v>21.74538881970452</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>26.81803736819757</v>
+        <v>43.0677340378414</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>26.81803731111909</v>
+        <v>29.65274873483911</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>26.81803731314952</v>
+        <v>30.02754677879773</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>26.81803733484431</v>
+        <v>36.0366903272474</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>26.81803731947381</v>
+        <v>16.11777711577442</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>26.8180373525437</v>
+        <v>36.80352088773413</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>26.81803734974341</v>
+        <v>31.64657258406028</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>26.81803737262339</v>
+        <v>38.12209648740917</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>26.81803735519085</v>
+        <v>17.75610943513703</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>26.8180373950986</v>
+        <v>34.90800097737538</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>26.8180373957697</v>
+        <v>41.1723434148021</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>26.81803741819568</v>
+        <v>48.19288127552186</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>26.81803739927029</v>
+        <v>26.82784874586355</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>26.81803736683176</v>
+        <v>45.96183217249717</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>26.81803739035477</v>
+        <v>53.25144711072107</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>26.81803737177071</v>
+        <v>31.62138431688265</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>26.81803741234536</v>
+        <v>50.19957672218793</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>26.8180374127866</v>
+        <v>57.76840599986971</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>26.81803743584118</v>
+        <v>65.6303719099669</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>26.8180374157745</v>
+        <v>42.95258709709096</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>26.81803736971548</v>
+        <v>47.98814984434058</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>26.81803739316736</v>
+        <v>55.42337114917098</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>26.81803737453124</v>
+        <v>33.65667466955015</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>26.81803741494213</v>
+        <v>52.81179821802248</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>26.8180374153341</v>
+        <v>60.60313084722917</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>26.81803743832002</v>
+        <v>68.61636158081475</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>26.81803741821175</v>
+        <v>45.78757050266316</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>26.81803735428791</v>
+        <v>40.66986049033483</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>26.81803737749693</v>
+        <v>47.64459927758791</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>26.8180373596432</v>
+        <v>26.49146667554646</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>26.81803740005551</v>
+        <v>45.6767948694124</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>26.81803740066177</v>
+        <v>52.40396250490146</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>26.81803742341202</v>
+        <v>59.9504702905482</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>26.81803740405327</v>
+        <v>37.73107611918513</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>26.81803730474177</v>
+        <v>14.50936123562726</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>26.81803730703353</v>
+        <v>14.76765728700663</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>26.81803732843971</v>
+        <v>19.82567386965801</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>26.81803731366208</v>
+        <v>2.016043773239119</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>26.81803734532331</v>
+        <v>16.2567800191393</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>26.81803732079327</v>
+        <v>24.35490737458651</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>26.81803732288436</v>
+        <v>25.77169557801965</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>26.81803734489622</v>
+        <v>31.5402220684969</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>26.81803732904444</v>
+        <v>12.60512812223115</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>26.81803736286582</v>
+        <v>29.35626150653145</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>26.81803732385676</v>
+        <v>25.37404912398345</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>26.81803732589186</v>
+        <v>27.02585944591369</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>26.81803734783734</v>
+        <v>32.92114450662607</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>26.81803733192594</v>
+        <v>13.86203866399898</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>26.81803736586932</v>
+        <v>31.16998982057803</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>26.81803730869616</v>
+        <v>20.50444952076473</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>26.81803731094457</v>
+        <v>21.17898001906037</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>26.81803733265871</v>
+        <v>26.65964134271169</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>26.81803731749956</v>
+        <v>8.158607070083118</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>26.81803734997055</v>
+        <v>24.70556081804338</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>26.81803734732903</v>
+        <v>19.736061450556</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>26.81803737022791</v>
+        <v>25.64141586148208</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>26.81803735300777</v>
+        <v>6.660763448808659</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>26.81803739280209</v>
+        <v>24.84931446157447</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>26.81803739364888</v>
+        <v>31.18028419211156</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>26.81803741610202</v>
+        <v>37.69060691253509</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>26.81803739735127</v>
+        <v>17.56396784356706</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>26.81803736465016</v>
+        <v>34.08825222429458</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>26.81803738819693</v>
+        <v>40.80343235810481</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>26.81803736981738</v>
+        <v>20.56968082039472</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>26.81803741027499</v>
+        <v>40.28891231956922</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>26.81803741089368</v>
+        <v>47.91898240454634</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>26.81803743398022</v>
+        <v>55.26796877576252</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>26.81803741407992</v>
+        <v>33.83477931694606</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>26.81803736759618</v>
+        <v>36.13055126482745</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>26.81803739107226</v>
+        <v>42.99272360823289</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>26.81803737263778</v>
+        <v>22.61596912484585</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>26.81803741293223</v>
+        <v>42.94243532095873</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>26.81803741350052</v>
+        <v>50.78954918718813</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>26.8180374365188</v>
+        <v>58.29114119194207</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>26.81803741657423</v>
+        <v>36.70022683919167</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>26.8180373519245</v>
+        <v>28.60913642294081</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>26.81803737515348</v>
+        <v>35.00804807144257</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>26.81803735751171</v>
+        <v>15.24759235511121</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>26.81803739780959</v>
+        <v>35.56375015329596</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>26.81803739859311</v>
+        <v>42.34418592724672</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>26.81803742137171</v>
+        <v>49.37565121858704</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>26.81803740218673</v>
+        <v>28.39884247145744</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>26.81803730948874</v>
+        <v>14.08346102818656</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>26.81803731170011</v>
+        <v>14.30823327144535</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>26.81803733331007</v>
+        <v>19.55676782752447</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>26.81803731818986</v>
+        <v>0.9826217363071414</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.81803735085752</v>
+        <v>16.56609519106433</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>26.81803732589615</v>
+        <v>24.80957999568142</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>26.81803732790437</v>
+        <v>26.24263304231287</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>26.81803735012964</v>
+        <v>32.23021811990236</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>26.81803733391247</v>
+        <v>12.48384431153374</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>26.81803736877503</v>
+        <v>30.57522547946797</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>26.81803732899719</v>
+        <v>26.16220585829857</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>26.81803733094958</v>
+        <v>27.84278621697514</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>26.81803735310901</v>
+        <v>33.96553745531635</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>26.81803733683023</v>
+        <v>14.08526257466448</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>26.81803737181209</v>
+        <v>32.73619592058203</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>26.81803731359709</v>
+        <v>21.00810662418261</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>26.81803731576401</v>
+        <v>21.67193052698837</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>26.81803733768653</v>
+        <v>27.36681730560845</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>26.81803732217524</v>
+        <v>8.060361861681578</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>26.81803735566792</v>
+        <v>26.02236792244546</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>26.81803735277199</v>
+        <v>20.21818927855975</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>26.81803737587367</v>
+        <v>26.32604669560315</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>26.81803735828534</v>
+        <v>6.585390178560093</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>26.81803739794805</v>
+        <v>23.28946355695195</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>26.81803739869441</v>
+        <v>29.97494443107694</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>26.81803742132177</v>
+        <v>36.66598337527478</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>26.81803740223994</v>
+        <v>15.86273795385836</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>26.8180373704662</v>
+        <v>35.53727683696314</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>26.81803739422578</v>
+        <v>42.4853089444504</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>26.81803737545468</v>
+        <v>21.44510672152761</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>26.81803741577838</v>
+        <v>39.58930952329291</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>26.81803741629489</v>
+        <v>47.63226214230568</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>26.81803743956529</v>
+        <v>55.19230251565442</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>26.81803741931177</v>
+        <v>33.03627190294317</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>26.81803737344615</v>
+        <v>37.93821701491199</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>26.81803739713562</v>
+        <v>45.04241881041868</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>26.81803737830775</v>
+        <v>23.84820967334687</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>26.81803741846763</v>
+        <v>42.60125050434223</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>26.81803741893411</v>
+        <v>50.87072406524672</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>26.81803744213691</v>
+        <v>58.59234650003599</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>26.81803742183729</v>
+        <v>36.2669135669471</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>26.81803735752964</v>
+        <v>30.12086192522236</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>26.81803738096609</v>
+        <v>36.7482557358536</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>26.81803736294636</v>
+        <v>16.18313048827318</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>26.81803740310926</v>
+        <v>35.01032491669805</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>26.81803740379118</v>
+        <v>42.16657971784717</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>26.81803742674822</v>
+        <v>49.40353967502143</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>26.81803740722306</v>
+        <v>27.70545319330714</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>26.81803731388009</v>
+        <v>31.92862653687554</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>26.81803731584604</v>
+        <v>32.03881057783698</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>26.81803733710822</v>
+        <v>37.88065415133789</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>26.81803732199921</v>
+        <v>18.20297311523202</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>26.81803735382953</v>
+        <v>31.97080430850451</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>26.81803732965759</v>
+        <v>42.11576258610252</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>26.81803733142111</v>
+        <v>43.39704358751835</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>26.81803735328044</v>
+        <v>49.96898462928314</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>26.8180373371109</v>
+        <v>29.12686164512014</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>26.81803737106198</v>
+        <v>45.29702860161734</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.81803733259457</v>
+        <v>43.08317631926942</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>26.81803733430463</v>
+        <v>44.60529797773839</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>26.81803735609739</v>
+        <v>51.30303144541919</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>26.81803733987327</v>
+        <v>30.34202800989237</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>26.81803737393781</v>
+        <v>47.06155955478177</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>26.81803731781039</v>
+        <v>38.13722401310787</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>26.81803731973066</v>
+        <v>38.67527459059392</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.81803734129768</v>
+        <v>44.95135111641967</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>26.81803732580874</v>
+        <v>24.56178944512349</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>26.81803735843825</v>
+        <v>40.60273521405522</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>26.81803735552479</v>
+        <v>35.6045387161026</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>26.8180373782619</v>
+        <v>42.30588144734652</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>26.81803736074786</v>
+        <v>21.55802436660136</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>26.81803739973734</v>
+        <v>38.20464918412561</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>26.81803740032512</v>
+        <v>44.70908675651538</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>26.81803742260612</v>
+        <v>51.96163551087886</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>26.81803740364296</v>
+        <v>30.19911758795961</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>26.81803737253426</v>
+        <v>50.20170021856097</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>26.81803739590986</v>
+        <v>57.73141022443983</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>26.81803737725179</v>
+        <v>35.69849296877324</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>26.81803741689304</v>
+        <v>53.78823482077887</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>26.81803741725176</v>
+        <v>61.61126795133665</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>26.81803744015675</v>
+        <v>69.7200011194884</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>26.81803742006003</v>
+        <v>46.62275483490774</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>26.81803737535501</v>
+        <v>52.19932117098499</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>26.81803739865974</v>
+        <v>59.87515085872814</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.81803737995172</v>
+        <v>37.70455503337096</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>26.81803741943363</v>
+        <v>56.39330434245196</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>26.81803741974404</v>
+        <v>64.43850726521404</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>26.81803744258065</v>
+        <v>72.69921385448214</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>26.81803742244413</v>
+        <v>49.44957424249542</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>26.81803736007953</v>
+        <v>44.67495468381031</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>26.8180373831433</v>
+        <v>51.88177357325012</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>26.81803736520989</v>
+        <v>30.33603225521927</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>26.81803740469323</v>
+        <v>49.06168956225102</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>26.81803740521609</v>
+        <v>56.03147764346117</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>26.81803742781896</v>
+        <v>63.81684090240514</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>26.81803740842463</v>
+        <v>41.18808902266549</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>26.81803729512243</v>
+        <v>11.18593630453038</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>26.8180372975786</v>
+        <v>11.2839865945461</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>26.81803731808986</v>
+        <v>16.1139072295393</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>26.81803730439147</v>
+        <v>-1.251822217148529</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>26.81803733377789</v>
+        <v>12.27072897353723</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>26.81803731051059</v>
+        <v>20.90477845918164</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>26.81803731277267</v>
+        <v>22.11328887673737</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>26.81803733386807</v>
+        <v>27.6444810600953</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>26.81803731913816</v>
+        <v>9.158997504309601</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>26.81803735060553</v>
+        <v>25.15123906764303</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>26.81803731353565</v>
+        <v>21.85988465150557</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>26.81803731574236</v>
+        <v>23.29697995798871</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>26.81803733677427</v>
+        <v>28.95264172062852</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>26.81803732198425</v>
+        <v>10.34520187229109</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>26.81803735357499</v>
+        <v>26.86482929163821</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>26.81803729882467</v>
+        <v>16.89282002459603</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>26.81803730124129</v>
+        <v>17.39280339616101</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>26.81803732204797</v>
+        <v>22.63428508677129</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>26.81803730798786</v>
+        <v>4.595257331361307</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>26.81803733814256</v>
+        <v>20.31710994586253</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>26.81803733595181</v>
+        <v>15.41118158086581</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>26.81803735789653</v>
+        <v>21.04898648179082</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>26.81803734185779</v>
+        <v>2.553258446394672</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>26.81803738076421</v>
+        <v>20.5281812445424</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>26.81803738180219</v>
+        <v>26.51276886447455</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>26.81803740333888</v>
+        <v>32.7612166282688</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>26.81803738575985</v>
+        <v>13.11782612001898</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>26.8180373525656</v>
+        <v>29.49696431926304</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>26.81803737513534</v>
+        <v>35.93388947649961</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>26.81803735798276</v>
+        <v>16.19253114756284</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>26.81803739754341</v>
+        <v>35.71886521596247</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>26.81803739836096</v>
+        <v>42.95719988482688</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>26.8180374205091</v>
+        <v>50.03240007444013</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>26.8180374018245</v>
+        <v>29.092001294034</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>26.81803735547833</v>
+        <v>31.4348650097392</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>26.81803737798039</v>
+        <v>38.01577199121237</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>26.81803736077221</v>
+        <v>18.13446401363676</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>26.81803740017352</v>
+        <v>38.25635446352414</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>26.8180374009413</v>
+        <v>45.70789077597664</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>26.81803742302406</v>
+        <v>52.93229315888904</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>26.8180374042944</v>
+        <v>31.83810836534249</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>26.81803734026877</v>
+        <v>23.86990088257359</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>26.81803736253013</v>
+        <v>29.98744703396374</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>26.81803734609123</v>
+        <v>10.7337161060403</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>26.81803738549047</v>
+        <v>30.79533535415202</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>26.81803738646959</v>
+        <v>37.21817545674301</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>26.81803740831872</v>
+        <v>43.97338793064421</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>26.81803739032663</v>
+        <v>23.50316569935299</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>26.81803729757934</v>
+        <v>18.24369646487151</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>26.81803729985182</v>
+        <v>18.14956976046946</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>26.8180373207477</v>
+        <v>23.48342113479924</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>26.81803730652983</v>
+        <v>4.725312400241641</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>26.81803733719581</v>
+        <v>22.59516202446276</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>26.818037313007</v>
+        <v>28.06590893522643</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>26.8180373150801</v>
+        <v>29.11341561831055</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>26.81803733656517</v>
+        <v>35.16758468224987</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>26.81803732130605</v>
+        <v>15.25459655211725</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>26.81803735406674</v>
+        <v>35.52733767062441</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>26.81803731601595</v>
+        <v>29.03018298430528</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>26.81803731803408</v>
+        <v>30.3172396810553</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>26.81803733945385</v>
+        <v>36.49847847677783</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>26.81803732413676</v>
+        <v>16.46397245900894</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>26.81803735701299</v>
+        <v>37.22576226574505</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>26.81803730130687</v>
+        <v>24.17650146704966</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>26.8180373035369</v>
+        <v>24.5046825036678</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>26.81803732473273</v>
+        <v>30.26556422340404</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>26.81803731014648</v>
+        <v>10.81008451774287</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>26.81803734159286</v>
+        <v>30.88625851921621</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>26.81803733919003</v>
+        <v>25.79261502249383</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>26.8180373615482</v>
+        <v>32.00279797908778</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>26.8180373449413</v>
+        <v>12.06524384371794</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>26.81803738479409</v>
+        <v>30.22585448074097</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>26.81803738566296</v>
+        <v>36.24074656646635</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>26.81803740759812</v>
+        <v>43.04176187474576</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>26.81803738945617</v>
+        <v>21.98030195320447</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>26.81803735584151</v>
+        <v>39.9693775761906</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>26.81803737882995</v>
+        <v>46.99843326688511</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>26.81803736109903</v>
+        <v>25.78462159097098</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>26.81803740162162</v>
+        <v>45.45596751356587</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>26.81803740226502</v>
+        <v>52.76459182808056</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>26.81803742481667</v>
+        <v>60.41176593565883</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>26.81803740555944</v>
+        <v>38.02449007280829</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>26.8180373587313</v>
+        <v>41.90297168721814</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>26.81803738165011</v>
+        <v>49.07876896897113</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>26.81803736386595</v>
+        <v>27.72611923826135</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>26.8180374042249</v>
+        <v>47.97945024684914</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>26.81803740481876</v>
+        <v>55.51287305280758</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>26.81803742730313</v>
+        <v>63.31215314352963</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.81803740800325</v>
+        <v>40.77253016697581</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>26.8180373435364</v>
+        <v>34.52039696189658</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>26.81803736621607</v>
+        <v>41.22737343385728</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>26.81803734920181</v>
+        <v>20.50827019415998</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>26.81803738955839</v>
+        <v>40.72880041159683</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>26.8180373903656</v>
+        <v>47.20735976286393</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>26.81803741261788</v>
+        <v>54.53246835510146</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>26.81803739405584</v>
+        <v>32.6211235018678</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>26.81803729476892</v>
+        <v>11.93093415508365</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>26.81803729718238</v>
+        <v>12.04278725827586</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>26.81803731781515</v>
+        <v>17.00974606231777</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>26.81803730399212</v>
+        <v>-0.6842775009803788</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>26.81803733362506</v>
+        <v>11.67463025499676</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>26.81803731003908</v>
+        <v>21.40457485083945</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>26.81803731225755</v>
+        <v>22.65837372952665</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>26.81803733347255</v>
+        <v>28.33244278922245</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>26.81803731862232</v>
+        <v>9.513494143821575</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>26.81803735032871</v>
+        <v>24.26215690472652</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>26.81803731304323</v>
+        <v>22.30238826635872</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>26.81803731520624</v>
+        <v>23.79229786911849</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>26.81803733635667</v>
+        <v>29.59238435530984</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>26.81803732144777</v>
+        <v>10.65117974241869</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>26.81803735327515</v>
+        <v>25.9308969114163</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>26.81803729843208</v>
+        <v>17.551806364934</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>26.81803730080509</v>
+        <v>18.08320282458528</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>26.81803732173395</v>
+        <v>23.46854500320081</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>26.81803730754909</v>
+        <v>5.094876365446449</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>26.81803733795099</v>
+        <v>19.64991025302612</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>26.81803733576297</v>
+        <v>14.96352874173956</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>26.81803735784112</v>
+        <v>20.74220306616724</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>26.81803734166491</v>
+        <v>1.959320222942086</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>26.81803738119747</v>
+        <v>21.25219257605922</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>26.81803738220419</v>
+        <v>27.27692678805013</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>26.81803740387625</v>
+        <v>33.67904604183725</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>26.8180373861433</v>
+        <v>13.65365900649441</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>26.81803735225141</v>
+        <v>28.79244708952939</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>26.81803737495247</v>
+        <v>35.37608783793957</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>26.8180373576668</v>
+        <v>15.3456465873484</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>26.81803739786238</v>
+        <v>36.19438639820287</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>26.81803739864755</v>
+        <v>43.50686598908887</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>26.81803742092894</v>
+        <v>50.74181840024887</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>26.81803740209461</v>
+        <v>29.41639249238323</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>26.8180373551409</v>
+        <v>30.69343738248746</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>26.81803737777314</v>
+        <v>37.423010494903</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>26.81803736043334</v>
+        <v>17.2523658501547</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>26.81803740046673</v>
+        <v>38.68815987052191</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>26.81803740120193</v>
+        <v>46.22264388198167</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>26.81803742341678</v>
+        <v>53.60883342511464</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>26.81803740453897</v>
+        <v>32.12988720841261</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>26.81803734004025</v>
+        <v>23.37203459780144</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>26.81803736243582</v>
+        <v>29.63825092848715</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>26.81803734585918</v>
+        <v>10.09185125772748</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>26.81803738589171</v>
+        <v>31.47377631329803</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>26.81803738683874</v>
+        <v>37.95768024746643</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>26.81803740882405</v>
+        <v>44.8750510661777</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>26.81803739067762</v>
+        <v>24.01638537785783</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>26.81803728960208</v>
+        <v>3.947228848493257</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>26.81803729207754</v>
+        <v>4.041738059831758</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>26.81803731207291</v>
+        <v>8.651695327618324</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.81803729893311</v>
+        <v>-8.142666168703403</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>26.81803732762624</v>
+        <v>5.480014746478339</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.81803730437653</v>
+        <v>12.99285680700653</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>26.81803730666337</v>
+        <v>14.19599053174752</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>26.81803732722375</v>
+        <v>19.48961647201159</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>26.8180373130884</v>
+        <v>1.607538526072315</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>26.81803734379696</v>
+        <v>17.55277130519837</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>26.81803730734318</v>
+        <v>13.90374193726302</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>26.81803730957522</v>
+        <v>15.33762759491943</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>26.81803733007316</v>
+        <v>20.75488586179603</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>26.81803731587885</v>
+        <v>2.752556892358275</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>26.81803734670526</v>
+        <v>19.19251868746149</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>26.81803729310325</v>
+        <v>9.352407592275981</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>26.81803729554045</v>
+        <v>9.856896558295295</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>26.81803731582302</v>
+        <v>14.87179626925211</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>26.81803730233409</v>
+        <v>-2.578283896380054</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>26.81803733177303</v>
+        <v>13.16294848319834</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>26.8180373298292</v>
+        <v>8.623580929020195</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>26.81803735123283</v>
+        <v>14.03127305969544</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>26.8180373357942</v>
+        <v>-3.860005620206486</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>26.81803737479422</v>
+        <v>15.39452411000803</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>26.8180373758845</v>
+        <v>21.1857606123593</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.81803739690297</v>
+        <v>27.20908202644891</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>26.81803737991124</v>
+        <v>8.076515599909104</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>26.81803734579182</v>
+        <v>21.90360516044212</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>26.81803736780009</v>
+        <v>28.09026488092331</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>26.81803735128592</v>
+        <v>8.992100208264196</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>26.81803739094015</v>
+        <v>29.77173495444641</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>26.81803739181618</v>
+        <v>36.81556159022874</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>26.81803741342632</v>
+        <v>43.64483762731947</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>26.81803739536637</v>
+        <v>23.25422468406147</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>26.81803734864392</v>
+        <v>23.77124099051676</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>26.81803737058559</v>
+        <v>30.10076340457989</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>26.81803735401697</v>
+        <v>10.86534859540032</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>26.81803739351069</v>
+        <v>32.20790065885639</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>26.81803739433742</v>
+        <v>39.46965900922949</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>26.81803741588312</v>
+        <v>46.44681696869058</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>26.81803739777931</v>
+        <v>25.90628881049517</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>26.81803733392975</v>
+        <v>16.73103543007835</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>26.81803735564136</v>
+        <v>22.61073530387198</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>26.81803733981602</v>
+        <v>3.982521564003079</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>26.81803737930859</v>
+        <v>25.26026433406254</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>26.81803738034181</v>
+        <v>31.50092963954171</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>26.8180374016643</v>
+        <v>38.02313836359505</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>26.8180373842728</v>
+        <v>18.08558369767869</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>26.81803730806517</v>
+        <v>17.21726565501132</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.81803731040122</v>
+        <v>17.44599511207159</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>26.8180373320218</v>
+        <v>22.57587314037848</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.8180373170237</v>
+        <v>4.308462662025505</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.81803734934361</v>
+        <v>17.44305995136548</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>26.81803732459323</v>
+        <v>28.08221931500461</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>26.81803732672771</v>
+        <v>29.52530510044232</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>26.81803734896615</v>
+        <v>35.39533820362989</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>26.81803733286717</v>
+        <v>15.9568998563888</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>26.81803736739409</v>
+        <v>31.63747418504413</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>26.81803732772773</v>
+        <v>29.40451812902334</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>26.81803732980557</v>
+        <v>31.0946899837701</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>26.81803735197838</v>
+        <v>37.10025648111478</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>26.81803733581623</v>
+        <v>17.52647111951176</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>26.81803737046788</v>
+        <v>33.79632453823018</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>26.81803731219821</v>
+        <v>24.14034745102883</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>26.81803731449098</v>
+        <v>24.80616951077046</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>26.81803733642468</v>
+        <v>30.38180902721546</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>26.8180373210354</v>
+        <v>11.38303256396156</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>26.81803735418231</v>
+        <v>26.92484464647632</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>26.81803735137805</v>
+        <v>21.02362942285791</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>26.81803737449064</v>
+        <v>26.98645158041592</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>26.81803735702494</v>
+        <v>7.582043173200052</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>26.81803739662216</v>
+        <v>24.86960785840106</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>26.81803739746995</v>
+        <v>31.50169570845238</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>26.81803742011299</v>
+        <v>38.07086536298497</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>26.81803740113199</v>
+        <v>17.5511106419264</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>26.81803736920665</v>
+        <v>36.5320743882252</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>26.81803739297995</v>
+        <v>43.33697279256293</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>26.81803737432692</v>
+        <v>22.63133872787774</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>26.81803741458305</v>
+        <v>41.39840018562926</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>26.81803741520201</v>
+        <v>49.39145230826767</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>26.81803743849087</v>
+        <v>56.83222113117083</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>26.8180374183334</v>
+        <v>34.9559235736609</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>26.81803737222257</v>
+        <v>38.93060710776132</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>26.81803739592602</v>
+        <v>45.89233118331616</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>26.81803737721456</v>
+        <v>25.03053155768848</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>26.81803741730722</v>
+        <v>44.41833884962168</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>26.81803741787549</v>
+        <v>52.63732378708355</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>26.81803744109697</v>
+        <v>60.24033891963937</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>26.81803742089186</v>
+        <v>38.19226952621537</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>26.81803735616512</v>
+        <v>30.94849080749838</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>26.8180373796131</v>
+        <v>37.43055820402652</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>26.81803736171574</v>
+        <v>17.20123264650184</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>26.81803740181258</v>
+        <v>36.65189251984096</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>26.81803740259685</v>
+        <v>43.75128024479549</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>26.81803742557025</v>
+        <v>50.866441363097</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>26.8180374061454</v>
+        <v>29.45016071107799</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>26.81803729792292</v>
+        <v>20.98036625437712</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>26.81803730025571</v>
+        <v>20.91167237798104</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>26.81803732092662</v>
+        <v>26.09589422165786</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>26.81803730693847</v>
+        <v>7.819160087368896</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>26.81803733667002</v>
+        <v>21.04158751086062</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>26.81803731327935</v>
+        <v>30.78691426224876</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>26.81803731541516</v>
+        <v>31.84034900050873</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>26.81803733667126</v>
+        <v>37.73751255907983</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>26.8180373216499</v>
+        <v>18.31878550131133</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>26.81803735346115</v>
+        <v>33.95541481954376</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.81803731627189</v>
+        <v>31.68229750546047</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>26.81803731835291</v>
+        <v>32.970380478663</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>26.81803733954457</v>
+        <v>38.99282888202644</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>26.81803732446517</v>
+        <v>19.45351131757086</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>26.8180373563964</v>
+        <v>35.61264978385041</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>26.81803730162929</v>
+        <v>26.76952123758693</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>26.81803730392103</v>
+        <v>27.11460056250082</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>26.8180373248889</v>
+        <v>32.71917588155633</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>26.81803731053665</v>
+        <v>13.75681227889145</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>26.81803734103776</v>
+        <v>29.16296153318189</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>26.81803733872596</v>
+        <v>24.15065415839825</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>26.81803736083761</v>
+        <v>30.14373613872176</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>26.81803734450235</v>
+        <v>10.7881839869318</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>26.81803738363802</v>
+        <v>28.480526446666</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>26.81803738457153</v>
+        <v>34.42175068289305</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.81803740626758</v>
+        <v>41.01263166974016</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.81803738840675</v>
+        <v>20.52115353740714</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>26.81803735530013</v>
+        <v>38.28578569752085</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>26.81803737803778</v>
+        <v>45.08939998668701</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.81803736058706</v>
+        <v>24.46945358858714</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>26.8180374003818</v>
+        <v>43.68096168095839</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>26.81803740109211</v>
+        <v>50.89264032242551</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.8180374234005</v>
+        <v>58.32110768186586</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>26.81803740443267</v>
+        <v>36.51532520385454</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>26.81803735817915</v>
+        <v>40.17365927403224</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>26.8180373808481</v>
+        <v>47.12221688501683</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>26.81803736334387</v>
+        <v>26.36389054192041</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>26.8180374029782</v>
+        <v>46.16207010149523</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>26.81803740363918</v>
+        <v>53.59382866719197</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>26.8180374258812</v>
+        <v>61.17245478261046</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>26.81803740687033</v>
+        <v>39.21487235423608</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>26.81803734304446</v>
+        <v>32.69925119064514</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>26.81803736547436</v>
+        <v>39.18115650664265</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>26.8180373487365</v>
+        <v>19.05673800626066</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>26.8180373883675</v>
+        <v>38.80774850852708</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>26.8180373892408</v>
+        <v>45.20314229820641</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>26.81803741125081</v>
+        <v>52.30985157793887</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>26.81803739297467</v>
+        <v>30.98132027469769</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>26.81803731510997</v>
+        <v>28.06330447858812</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>26.81803731722957</v>
+        <v>28.22085166957208</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>26.8180373388712</v>
+        <v>33.82690549852833</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>26.81803732353564</v>
+        <v>14.44027953421117</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>26.81803735624342</v>
+        <v>28.88397973844186</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>26.81803733158517</v>
+        <v>39.21363563536553</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>26.81803733350131</v>
+        <v>40.59418819622772</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>26.81803735575911</v>
+        <v>46.95277437784023</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>26.81803733932402</v>
+        <v>26.37191395925143</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>26.81803737422738</v>
+        <v>43.35408628427304</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>26.81803733465203</v>
+        <v>40.53415391612566</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>26.81803733651303</v>
+        <v>42.16494759298917</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>26.8180373587049</v>
+        <v>48.65886098442881</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>26.81803734220948</v>
+        <v>27.94512485128653</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>26.81803737723238</v>
+        <v>45.51036181941397</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>26.81803731927233</v>
+        <v>35.21518498367033</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>26.81803732134684</v>
+        <v>35.81557889124276</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>26.81803734330146</v>
+        <v>41.87572768423416</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>26.81803732757277</v>
+        <v>21.74257359196562</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>26.81803736110665</v>
+        <v>38.60257181882979</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>26.8180373580681</v>
+        <v>32.55780288729872</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>26.81803738119621</v>
+        <v>39.02117301621335</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>26.81803736340395</v>
+        <v>18.50331089364659</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>26.81803740255263</v>
+        <v>34.6418939767502</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>26.81803740321774</v>
+        <v>41.40683345145511</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>26.81803742586407</v>
+        <v>48.44392774861724</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>26.81803740660977</v>
+        <v>26.90663998369889</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>26.81803737582834</v>
+        <v>48.35239068337556</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>26.81803739961515</v>
+        <v>55.67026080836141</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>26.81803738063754</v>
+        <v>33.83005218949036</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>26.81803742043859</v>
+        <v>51.39629309896025</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>26.81803742087336</v>
+        <v>59.53376900286828</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>26.81803744416337</v>
+        <v>67.45445282081049</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>26.8180374237352</v>
+        <v>44.54153813313961</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>26.8180373787769</v>
+        <v>50.75047232010679</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>26.81803740249356</v>
+        <v>58.22501993651871</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>26.81803738346036</v>
+        <v>36.23122257963323</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>26.81803742309999</v>
+        <v>54.41703704261714</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.81803742348533</v>
+        <v>62.78267556476639</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>26.81803744670771</v>
+        <v>70.86563539825839</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.81803742623443</v>
+        <v>47.78324648226155</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>26.81803736287795</v>
+        <v>42.72579839583929</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>26.8180373863412</v>
+        <v>49.71732199788905</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>26.81803736811555</v>
+        <v>28.35972793907014</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>26.81803740775831</v>
+        <v>46.63923947266396</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>26.81803740835841</v>
+        <v>53.87871855250707</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>26.8180374313347</v>
+        <v>61.47054947213452</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>26.81803741163538</v>
+        <v>39.02291782200765</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>26.81803731276235</v>
+        <v>22.30759335522451</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>26.81803731495557</v>
+        <v>22.3306055921383</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>26.81803733595699</v>
+        <v>27.44531724358523</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>26.81803732126229</v>
+        <v>9.306504369578029</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>26.8180373530053</v>
+        <v>24.16684804656357</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>26.81803732885802</v>
+        <v>33.10641346768448</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>26.8180373308558</v>
+        <v>34.31543590527082</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>26.81803735245776</v>
+        <v>40.15415690088264</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>26.8180373366913</v>
+        <v>20.86867236462254</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>26.81803737057964</v>
+        <v>38.2081040972391</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>26.81803733189042</v>
+        <v>34.47944186829453</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>26.81803733383373</v>
+        <v>35.93153038529572</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.81803735537227</v>
+        <v>41.90348861192102</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.81803733954452</v>
+        <v>22.48482434242074</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>26.81803737355164</v>
+        <v>40.3870680723643</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>26.81803731682099</v>
+        <v>29.36925685399364</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>26.81803731897165</v>
+        <v>29.81955430396368</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>26.81803734027767</v>
+        <v>35.37370829350347</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.81803732520082</v>
+        <v>16.51158487442181</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>26.81803735775007</v>
+        <v>33.73660423328528</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>26.81803735490292</v>
+        <v>27.48370319453872</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>26.81803737734747</v>
+        <v>33.42113529218358</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>26.81803736025583</v>
+        <v>14.14898617534797</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>26.81803739851745</v>
+        <v>30.08414777012479</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>26.81803739926716</v>
+        <v>36.41860512190651</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>26.81803742124683</v>
+        <v>42.92491578721641</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>26.81803740270603</v>
+        <v>22.63632314591046</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>26.8180373722622</v>
+        <v>42.80801509343171</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>26.81803739534884</v>
+        <v>49.56845630938051</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>26.81803737710155</v>
+        <v>29.02359370372984</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>26.81803741599963</v>
+        <v>46.34784920957931</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>26.81803741652759</v>
+        <v>54.01164882235827</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>26.81803743913478</v>
+        <v>61.36923276150325</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>26.81803741944927</v>
+        <v>39.75577586879915</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>26.81803737517859</v>
+        <v>45.2223540039949</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>26.81803739819774</v>
+        <v>52.13679123637359</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.81803737989381</v>
+        <v>31.43842848427783</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>26.81803741863343</v>
+        <v>49.36068004930503</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.81803741911272</v>
+        <v>57.24603370669084</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.81803744165484</v>
+        <v>64.76278276250721</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>26.81803742192308</v>
+        <v>42.98057749161336</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.81803735959706</v>
+        <v>37.48584871493566</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>26.81803738236778</v>
+        <v>43.93458924335114</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>26.81803736485472</v>
+        <v>23.84729295245189</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>26.81803740359835</v>
+        <v>41.85838852753996</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>26.81803740428589</v>
+        <v>48.64883886943136</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>26.8180374265867</v>
+        <v>55.69172805337614</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>26.81803740761297</v>
+        <v>34.51957136411797</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>26.81803730174798</v>
+        <v>21.55060115467052</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>26.81803730408994</v>
+        <v>21.60378165729578</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>26.81803732576719</v>
+        <v>27.11619522921345</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>26.81803731086702</v>
+        <v>7.854308100337118</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>26.81803734255185</v>
+        <v>22.10659718555814</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>26.81803731803229</v>
+        <v>32.22224575370828</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>26.81803732016805</v>
+        <v>33.45592653894631</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>26.81803734246169</v>
+        <v>39.7185345995175</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>26.81803732646917</v>
+        <v>19.25565548256655</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>26.81803736034481</v>
+        <v>36.01655846247975</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>26.81803732115532</v>
+        <v>33.31433518320615</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>26.81803732323441</v>
+        <v>34.79236181114703</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>26.81803734546114</v>
+        <v>41.18696637869434</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>26.81803732940764</v>
+        <v>20.59535457264018</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>26.81803736340744</v>
+        <v>37.90897084732194</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>26.81803730574062</v>
+        <v>27.97043200932963</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>26.81803730803892</v>
+        <v>28.45450224049395</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>26.81803733002854</v>
+        <v>34.40979212647478</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>26.8180373147421</v>
+        <v>14.42035913633278</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>26.81803734724101</v>
+        <v>30.98813482804206</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>26.81803734459936</v>
+        <v>25.51743373726482</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>26.81803736777898</v>
+        <v>31.8873690852241</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>26.81803735041787</v>
+        <v>11.47718494019138</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>26.81803739075884</v>
+        <v>28.77084534113764</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>26.81803739163284</v>
+        <v>35.20926772116521</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>26.81803741435981</v>
+        <v>42.18064252281749</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>26.81803739544727</v>
+        <v>20.6716204675164</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>26.81803736216555</v>
+        <v>40.71076197401105</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>26.81803738600438</v>
+        <v>47.93285054861813</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>26.8180373674647</v>
+        <v>26.19385122049273</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>26.8180374084836</v>
+        <v>45.01991313732866</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>26.8180374091242</v>
+        <v>52.79316633748802</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>26.8180374324958</v>
+        <v>60.64510852688751</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>26.81803741241452</v>
+        <v>37.7555987650362</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>26.81803736517011</v>
+        <v>42.84178815724279</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>26.81803738893765</v>
+        <v>50.21651566353026</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>26.81803737034176</v>
+        <v>28.32969539559474</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>26.81803741119514</v>
+        <v>47.77578025418968</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>26.81803741178482</v>
+        <v>55.77571951005013</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>26.81803743508761</v>
+        <v>63.78581714745156</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>26.8180374149609</v>
+        <v>40.73379241723904</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>26.81803734923638</v>
+        <v>34.8403350910613</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>26.81803737275062</v>
+        <v>41.7252665901587</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>26.8180373549629</v>
+        <v>20.4985242314201</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.81803739581427</v>
+        <v>39.94323262870275</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>26.81803739662454</v>
+        <v>46.85052735661184</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>26.8180374196814</v>
+        <v>54.36448952178942</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>26.8180374003295</v>
+        <v>31.96838687264664</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>26.81803730694327</v>
+        <v>14.18268116508067</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>26.81803730927398</v>
+        <v>14.36349015956642</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>26.81803733000935</v>
+        <v>19.25313111842448</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>26.8180373157583</v>
+        <v>1.791273688596743</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>26.81803734660194</v>
+        <v>16.06550589297189</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>26.81803732280429</v>
+        <v>24.55728228722378</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>26.81803732494174</v>
+        <v>25.88872827612335</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>26.81803734627035</v>
+        <v>31.48721186459129</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>26.81803733096317</v>
+        <v>12.90016348991037</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>26.81803736393081</v>
+        <v>29.70510792590282</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>26.81803732583597</v>
+        <v>25.79610947032275</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.81803732791851</v>
+        <v>27.36200194546557</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.81803734918417</v>
+        <v>33.08923182394695</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>26.81803733381554</v>
+        <v>14.37332249969319</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>26.81803736690474</v>
+        <v>31.73979392603269</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.81803731088863</v>
+        <v>20.70974730692639</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>26.81803731317861</v>
+        <v>21.30397573152822</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>26.81803733421434</v>
+        <v>26.61786633338398</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.81803731958921</v>
+        <v>8.457647545828751</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>26.8180373512261</v>
+        <v>25.05699467156441</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>26.81803734864097</v>
+        <v>19.40659557956974</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>26.81803737081312</v>
+        <v>25.12486142900792</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>26.81803735418769</v>
+        <v>6.512973486102826</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>26.81803739236411</v>
+        <v>23.42493602919705</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>26.81803739325012</v>
+        <v>29.68817581531403</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>26.81803741497727</v>
+        <v>35.98840092173202</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>26.81803739687387</v>
+        <v>16.30261462754942</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>26.81803736575696</v>
+        <v>34.2904222118604</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>26.8180373885637</v>
+        <v>40.81680639510753</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>26.81803737079873</v>
+        <v>20.95138984360844</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>26.81803740961464</v>
+        <v>39.34042551669242</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>26.81803741028098</v>
+        <v>46.89276346252358</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>26.81803743262859</v>
+        <v>54.02980439561168</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>26.81803741339562</v>
+        <v>33.0365649250373</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>26.81803736867483</v>
+        <v>36.55276229884917</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>26.81803739141455</v>
+        <v>43.2281679265217</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>26.81803737359272</v>
+        <v>23.21410426233685</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>26.81803741225086</v>
+        <v>42.20532117691278</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>26.81803741286812</v>
+        <v>49.97206212825456</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>26.81803743515107</v>
+        <v>57.26354070640333</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>26.8180374158717</v>
+        <v>36.10634062288696</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>26.81803735321636</v>
+        <v>28.81669814018434</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>26.81803737571031</v>
+        <v>35.02977354171512</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>26.81803735867186</v>
+        <v>15.62948879697522</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>26.81803739732964</v>
+        <v>34.63260158325662</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>26.81803739815535</v>
+        <v>41.33709570454244</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>26.81803742019954</v>
+        <v>48.15824854180676</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>26.81803740167119</v>
+        <v>27.61452062893552</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>26.81803731263658</v>
+        <v>19.58059822466139</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>26.81803731484901</v>
+        <v>19.6984778307246</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>26.81803733573479</v>
+        <v>24.70807626163281</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>26.81803732115325</v>
+        <v>6.871783522893541</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>26.81803735263217</v>
+        <v>20.88591449992191</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>26.81803732867462</v>
+        <v>30.32651999929761</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>26.81803733069302</v>
+        <v>31.62549360250108</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>26.81803735217661</v>
+        <v>37.35494667492496</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>26.81803733652819</v>
+        <v>18.37952255672131</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>26.81803737014353</v>
+        <v>34.87889206339747</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>26.81803733170011</v>
+        <v>31.71307683088796</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>26.81803733366409</v>
+        <v>33.2526239641621</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>26.8180373550847</v>
+        <v>39.1150664300758</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>26.81803733937484</v>
+        <v>20.00575915293309</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>26.81803737310968</v>
+        <v>37.07382677768273</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>26.81803731668067</v>
+        <v>26.60761877462291</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>26.81803731885102</v>
+        <v>27.14916400647808</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>26.81803734003987</v>
+        <v>32.59562524381141</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>26.81803732507817</v>
+        <v>14.04004421312753</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>26.81803735735933</v>
+        <v>30.4138943717766</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>26.81803735455012</v>
+        <v>24.2586109338612</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>26.81803737687101</v>
+        <v>30.08054202304416</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>26.8180373599065</v>
+        <v>11.1181404345064</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>26.81803739791456</v>
+        <v>27.0664664937713</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>26.81803739868682</v>
+        <v>33.44567891169471</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>26.81803742054603</v>
+        <v>39.84148717061579</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>26.8180374021366</v>
+        <v>19.84907762664269</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>26.81803737184792</v>
+        <v>39.52850510844447</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>26.81803739480798</v>
+        <v>46.16911099818186</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>26.81803737669304</v>
+        <v>25.94096037537309</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>26.81803741533324</v>
+        <v>43.28400500566148</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>26.81803741588521</v>
+        <v>50.98608472188356</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>26.8180374383691</v>
+        <v>58.22888528969994</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>26.81803741882008</v>
+        <v>36.91811789921392</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>26.81803737475852</v>
+        <v>41.95637623141755</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>26.81803739765157</v>
+        <v>48.75068934935397</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>26.81803737947978</v>
+        <v>28.36824776612825</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>26.81803741796258</v>
+        <v>46.3109012835606</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>26.81803741846593</v>
+        <v>54.23206103838314</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>26.81803744088521</v>
+        <v>61.63369921034291</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>26.81803742128972</v>
+        <v>40.1533879074189</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>26.81803735922717</v>
+        <v>34.21485274188015</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>26.81803738187258</v>
+        <v>40.54520738331655</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>26.81803736448883</v>
+        <v>20.77168620594265</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>26.81803740297577</v>
+        <v>38.79967816649297</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>26.8180374036864</v>
+        <v>45.63044673079259</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>26.81803742586513</v>
+        <v>52.55991159970733</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>26.81803740702497</v>
+        <v>31.68781239521669</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>26.81803730870863</v>
+        <v>26.3768980594626</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>26.81803731096394</v>
+        <v>26.29318360521552</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>26.8180373325213</v>
+        <v>31.64018442561276</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>26.81803731751218</v>
+        <v>12.99052252810308</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>26.81803734976052</v>
+        <v>26.81670341107399</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>26.81803732502856</v>
+        <v>36.69248904575637</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>26.8180373270829</v>
+        <v>37.78334875798845</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>26.81803734925291</v>
+        <v>43.85475688685037</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>26.81803733315448</v>
+        <v>24.0543623296743</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>26.8180373675893</v>
+        <v>40.33820560971729</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>26.81803732811757</v>
+        <v>37.79038844443542</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>26.81803733011596</v>
+        <v>39.12258800259436</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>26.81803735221989</v>
+        <v>45.32296779738425</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>26.81803733606045</v>
+        <v>25.39646039763458</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>26.81803737061746</v>
+        <v>42.24558172091043</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>26.81803731278017</v>
+        <v>32.83171623458527</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>26.81803731499166</v>
+        <v>33.17133302956424</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>26.81803733686025</v>
+        <v>38.95197758451025</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>26.81803732146313</v>
+        <v>19.58854089250303</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>26.81803735453289</v>
+        <v>35.74877339086613</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>26.81803735172045</v>
+        <v>30.05755407999342</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>26.81803737477025</v>
+        <v>36.23415038325186</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>26.81803735730236</v>
+        <v>16.47204314476712</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>26.81803739696233</v>
+        <v>33.12738425088162</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>26.81803739775237</v>
+        <v>39.31849869032009</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>26.81803742034033</v>
+        <v>46.06717202587647</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>26.81803740135898</v>
+        <v>25.25339303302933</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>26.81803736932761</v>
+        <v>44.84990913121361</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>26.81803739303264</v>
+        <v>51.8498475507029</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>26.81803737438939</v>
+        <v>30.81149287441466</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>26.81803741471005</v>
+        <v>48.92816328597483</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>26.8180374152716</v>
+        <v>56.43751074021419</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>26.8180374385</v>
+        <v>64.03772081956231</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>26.81803741835378</v>
+        <v>41.89676681476767</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>26.81803737229846</v>
+        <v>46.99129087769935</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>26.81803739593315</v>
+        <v>54.14080203265989</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>26.81803737723359</v>
+        <v>32.95666529846841</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>26.81803741739101</v>
+        <v>51.67709969799223</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>26.81803741790236</v>
+        <v>59.40817617781173</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>26.81803744106289</v>
+        <v>67.16342939931771</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>26.81803742087105</v>
+        <v>44.86199369761914</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>26.81803735644058</v>
+        <v>39.4201823505137</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>26.81803737982384</v>
+        <v>46.1019801741184</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>26.81803736192757</v>
+        <v>25.53668708056768</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>26.81803740208855</v>
+        <v>44.28402128317254</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>26.81803740281466</v>
+        <v>50.93152331861899</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>26.81803742573117</v>
+        <v>58.21188847174825</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>26.81803740630917</v>
+        <v>36.5264804709272</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>26.81803730513129</v>
+        <v>22.04478278278544</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>26.81803730741802</v>
+        <v>22.10184481161733</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>26.8180373291418</v>
+        <v>27.64388462193298</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>26.81803731409008</v>
+        <v>8.328810842353484</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>26.81803734603145</v>
+        <v>22.6049791333832</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>26.81803732152218</v>
+        <v>32.81211494446175</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>26.8180373236018</v>
+        <v>34.04894483871624</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>26.81803734594411</v>
+        <v>40.34166693842474</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>26.81803732979407</v>
+        <v>19.82457221079773</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>26.81803736393334</v>
+        <v>36.60155068887838</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>26.81803732464128</v>
+        <v>33.95012533833338</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>26.81803732666443</v>
+        <v>35.43005185743037</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>26.81803734893996</v>
+        <v>41.85495081862511</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>26.81803733272882</v>
+        <v>21.20829535909851</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>26.81803736699186</v>
+        <v>38.53816070548402</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>26.81803730918231</v>
+        <v>28.58101703230756</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>26.81803731142476</v>
+        <v>29.06597539495147</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>26.81803733346195</v>
+        <v>35.05187139715866</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>26.818037318021</v>
+        <v>15.00563918853597</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>26.81803735078052</v>
+        <v>31.59765369962588</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>26.81803734802367</v>
+        <v>26.02951041175002</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>26.81803737124845</v>
+        <v>32.42758030417367</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>26.81803735373466</v>
+        <v>11.97264518493978</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>26.81803739377057</v>
+        <v>28.72499278228295</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>26.81803739459189</v>
+        <v>35.17307984391185</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>26.8180374173543</v>
+        <v>42.15986159236878</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>26.81803739831265</v>
+        <v>20.63608033179052</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>26.81803736569784</v>
+        <v>41.30764801349601</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>26.81803738958398</v>
+        <v>48.55799296489187</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>26.81803737088558</v>
+        <v>26.77341528535436</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>26.81803741159568</v>
+        <v>45.03979270269133</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>26.81803741218269</v>
+        <v>52.82050012327403</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>26.81803743559173</v>
+        <v>60.68783415674024</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>26.81803741537577</v>
+        <v>37.78333240201538</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>26.81803736869849</v>
+        <v>43.48118588121042</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>26.81803739251352</v>
+        <v>50.88431590859742</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>26.81803737375876</v>
+        <v>28.95095303837363</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>26.81803741430483</v>
+        <v>47.83714824824818</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>26.81803741484109</v>
+        <v>55.84278685038819</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>26.81803743818153</v>
+        <v>63.86838096141649</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>26.8180374179199</v>
+        <v>40.80040294436142</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>26.81803735271999</v>
+        <v>35.4597749857264</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>26.81803737628045</v>
+        <v>42.37368172115868</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>26.81803735833708</v>
+        <v>21.09851417340865</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>26.81803739887981</v>
+        <v>39.99090183418183</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>26.81803739963677</v>
+        <v>46.90390095559189</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>26.81803742272999</v>
+        <v>54.43363942147063</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>26.81803740324631</v>
+        <v>32.01989526434374</v>
       </c>
     </row>
   </sheetData>
